--- a/core/utils/docs_proj_p/distgradeunificada7.xlsx
+++ b/core/utils/docs_proj_p/distgradeunificada7.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2693" uniqueCount="498">
   <si>
     <t xml:space="preserve">PROJETO</t>
   </si>
@@ -1511,6 +1511,9 @@
   </si>
   <si>
     <t xml:space="preserve">MASCULINO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
 </sst>
 </file>
@@ -1993,7 +1996,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="A324" activeCellId="0" sqref="A324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7556,18 +7559,42 @@
       <c r="F163" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G163" s="11"/>
-      <c r="H163" s="11"/>
-      <c r="I163" s="11"/>
-      <c r="J163" s="11"/>
-      <c r="K163" s="11"/>
-      <c r="L163" s="11"/>
-      <c r="M163" s="11"/>
-      <c r="N163" s="11"/>
-      <c r="O163" s="11"/>
-      <c r="P163" s="11"/>
-      <c r="Q163" s="11"/>
-      <c r="R163" s="11"/>
+      <c r="G163" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H163" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I163" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="J163" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="K163" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="L163" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="M163" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="N163" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O163" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="P163" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q163" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="R163" s="11" t="n">
+        <v>12</v>
+      </c>
       <c r="S163" s="10"/>
       <c r="T163" s="10"/>
     </row>
@@ -7590,18 +7617,42 @@
       <c r="F164" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G164" s="11"/>
-      <c r="H164" s="11"/>
-      <c r="I164" s="11"/>
-      <c r="J164" s="11"/>
-      <c r="K164" s="11"/>
-      <c r="L164" s="11"/>
-      <c r="M164" s="11"/>
-      <c r="N164" s="11"/>
-      <c r="O164" s="11"/>
-      <c r="P164" s="11"/>
-      <c r="Q164" s="11"/>
-      <c r="R164" s="11"/>
+      <c r="G164" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H164" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I164" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="J164" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="K164" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="L164" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="M164" s="11" t="n">
+        <v>110</v>
+      </c>
+      <c r="N164" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="O164" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="P164" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q164" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="R164" s="11" t="n">
+        <v>20</v>
+      </c>
       <c r="S164" s="10"/>
       <c r="T164" s="10"/>
     </row>
@@ -7624,18 +7675,42 @@
       <c r="F165" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G165" s="11"/>
-      <c r="H165" s="11"/>
-      <c r="I165" s="11"/>
-      <c r="J165" s="11"/>
-      <c r="K165" s="11"/>
-      <c r="L165" s="11"/>
-      <c r="M165" s="11"/>
-      <c r="N165" s="11"/>
-      <c r="O165" s="11"/>
-      <c r="P165" s="11"/>
-      <c r="Q165" s="11"/>
-      <c r="R165" s="11"/>
+      <c r="G165" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H165" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I165" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="J165" s="11" t="n">
+        <v>43</v>
+      </c>
+      <c r="K165" s="11" t="n">
+        <v>43</v>
+      </c>
+      <c r="L165" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="M165" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N165" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O165" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P165" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q165" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R165" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S165" s="10"/>
       <c r="T165" s="10"/>
     </row>
@@ -7658,18 +7733,42 @@
       <c r="F166" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G166" s="11"/>
-      <c r="H166" s="11"/>
-      <c r="I166" s="11"/>
-      <c r="J166" s="11"/>
-      <c r="K166" s="11"/>
-      <c r="L166" s="11"/>
-      <c r="M166" s="11"/>
-      <c r="N166" s="11"/>
-      <c r="O166" s="11"/>
-      <c r="P166" s="11"/>
-      <c r="Q166" s="11"/>
-      <c r="R166" s="11"/>
+      <c r="G166" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H166" s="11" t="n">
+        <v>72</v>
+      </c>
+      <c r="I166" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="J166" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="K166" s="11" t="n">
+        <v>83</v>
+      </c>
+      <c r="L166" s="11" t="n">
+        <v>72</v>
+      </c>
+      <c r="M166" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="N166" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="O166" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="P166" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q166" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R166" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S166" s="10"/>
       <c r="T166" s="10"/>
     </row>
@@ -7692,18 +7791,42 @@
       <c r="F167" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G167" s="11"/>
-      <c r="H167" s="11"/>
-      <c r="I167" s="11"/>
-      <c r="J167" s="11"/>
-      <c r="K167" s="11"/>
-      <c r="L167" s="11"/>
-      <c r="M167" s="11"/>
-      <c r="N167" s="11"/>
-      <c r="O167" s="11"/>
-      <c r="P167" s="11"/>
-      <c r="Q167" s="11"/>
-      <c r="R167" s="11"/>
+      <c r="G167" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H167" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I167" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J167" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K167" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L167" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="M167" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N167" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O167" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P167" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q167" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R167" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S167" s="10"/>
       <c r="T167" s="10"/>
     </row>
@@ -7726,18 +7849,42 @@
       <c r="F168" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G168" s="11"/>
-      <c r="H168" s="11"/>
-      <c r="I168" s="11"/>
-      <c r="J168" s="11"/>
-      <c r="K168" s="11"/>
-      <c r="L168" s="11"/>
-      <c r="M168" s="11"/>
-      <c r="N168" s="11"/>
-      <c r="O168" s="11"/>
-      <c r="P168" s="11"/>
-      <c r="Q168" s="11"/>
-      <c r="R168" s="11"/>
+      <c r="G168" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H168" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="I168" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="J168" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="K168" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="L168" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="M168" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="N168" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="O168" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P168" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q168" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R168" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S168" s="10"/>
       <c r="T168" s="10"/>
     </row>
@@ -7760,18 +7907,42 @@
       <c r="F169" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G169" s="11"/>
-      <c r="H169" s="11"/>
-      <c r="I169" s="11"/>
-      <c r="J169" s="11"/>
-      <c r="K169" s="11"/>
-      <c r="L169" s="11"/>
-      <c r="M169" s="11"/>
-      <c r="N169" s="11"/>
-      <c r="O169" s="11"/>
-      <c r="P169" s="11"/>
-      <c r="Q169" s="11"/>
-      <c r="R169" s="11"/>
+      <c r="G169" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H169" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="I169" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J169" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K169" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="L169" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M169" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N169" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O169" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P169" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q169" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R169" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S169" s="10"/>
       <c r="T169" s="10"/>
     </row>
@@ -7794,18 +7965,42 @@
       <c r="F170" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G170" s="11"/>
-      <c r="H170" s="11"/>
-      <c r="I170" s="11"/>
-      <c r="J170" s="11"/>
-      <c r="K170" s="11"/>
-      <c r="L170" s="11"/>
-      <c r="M170" s="11"/>
-      <c r="N170" s="11"/>
-      <c r="O170" s="11"/>
-      <c r="P170" s="11"/>
-      <c r="Q170" s="11"/>
-      <c r="R170" s="11"/>
+      <c r="G170" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H170" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I170" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="J170" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="K170" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="L170" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="M170" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="N170" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="O170" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P170" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q170" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R170" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="S170" s="10"/>
       <c r="T170" s="10"/>
     </row>
@@ -7828,18 +8023,42 @@
       <c r="F171" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G171" s="11"/>
-      <c r="H171" s="11"/>
-      <c r="I171" s="11"/>
-      <c r="J171" s="11"/>
-      <c r="K171" s="11"/>
-      <c r="L171" s="11"/>
-      <c r="M171" s="11"/>
-      <c r="N171" s="11"/>
-      <c r="O171" s="11"/>
-      <c r="P171" s="11"/>
-      <c r="Q171" s="11"/>
-      <c r="R171" s="11"/>
+      <c r="G171" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H171" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I171" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="J171" s="11" t="n">
+        <v>85</v>
+      </c>
+      <c r="K171" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="L171" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="M171" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="N171" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="O171" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="P171" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q171" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="R171" s="11" t="n">
+        <v>10</v>
+      </c>
       <c r="S171" s="10"/>
       <c r="T171" s="10"/>
     </row>
@@ -7862,18 +8081,42 @@
       <c r="F172" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G172" s="11"/>
-      <c r="H172" s="11"/>
-      <c r="I172" s="11"/>
-      <c r="J172" s="11"/>
-      <c r="K172" s="11"/>
-      <c r="L172" s="11"/>
-      <c r="M172" s="11"/>
-      <c r="N172" s="11"/>
-      <c r="O172" s="11"/>
-      <c r="P172" s="11"/>
-      <c r="Q172" s="11"/>
-      <c r="R172" s="11"/>
+      <c r="G172" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H172" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I172" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="J172" s="11" t="n">
+        <v>42</v>
+      </c>
+      <c r="K172" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="L172" s="11" t="n">
+        <v>31</v>
+      </c>
+      <c r="M172" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="N172" s="11" t="n">
+        <v>28</v>
+      </c>
+      <c r="O172" s="11" t="n">
+        <v>32</v>
+      </c>
+      <c r="P172" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q172" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R172" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S172" s="10"/>
       <c r="T172" s="10"/>
     </row>
@@ -7896,18 +8139,42 @@
       <c r="F173" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="G173" s="11"/>
-      <c r="H173" s="11"/>
-      <c r="I173" s="11"/>
-      <c r="J173" s="11"/>
-      <c r="K173" s="11"/>
-      <c r="L173" s="11"/>
-      <c r="M173" s="11"/>
-      <c r="N173" s="11"/>
-      <c r="O173" s="11"/>
-      <c r="P173" s="11"/>
-      <c r="Q173" s="11"/>
-      <c r="R173" s="11"/>
+      <c r="G173" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H173" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I173" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="J173" s="11" t="n">
+        <v>56</v>
+      </c>
+      <c r="K173" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="L173" s="11" t="n">
+        <v>38</v>
+      </c>
+      <c r="M173" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="N173" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="O173" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P173" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q173" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R173" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S173" s="10"/>
       <c r="T173" s="10"/>
     </row>
@@ -7930,18 +8197,42 @@
       <c r="F174" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G174" s="11"/>
-      <c r="H174" s="11"/>
-      <c r="I174" s="11"/>
-      <c r="J174" s="11"/>
-      <c r="K174" s="11"/>
-      <c r="L174" s="11"/>
-      <c r="M174" s="11"/>
-      <c r="N174" s="11"/>
-      <c r="O174" s="11"/>
-      <c r="P174" s="11"/>
-      <c r="Q174" s="11"/>
-      <c r="R174" s="11"/>
+      <c r="G174" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H174" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I174" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="J174" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="K174" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="L174" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="M174" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="N174" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="O174" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="P174" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q174" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="R174" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S174" s="10"/>
       <c r="T174" s="10"/>
     </row>
@@ -7964,18 +8255,42 @@
       <c r="F175" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G175" s="11"/>
-      <c r="H175" s="11"/>
-      <c r="I175" s="11"/>
-      <c r="J175" s="11"/>
-      <c r="K175" s="11"/>
-      <c r="L175" s="11"/>
-      <c r="M175" s="11"/>
-      <c r="N175" s="11"/>
-      <c r="O175" s="11"/>
-      <c r="P175" s="11"/>
-      <c r="Q175" s="11"/>
-      <c r="R175" s="11"/>
+      <c r="G175" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H175" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I175" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="J175" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="K175" s="11" t="n">
+        <v>105</v>
+      </c>
+      <c r="L175" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="M175" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="N175" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="O175" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="P175" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q175" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R175" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S175" s="10"/>
       <c r="T175" s="10"/>
     </row>
@@ -7998,18 +8313,42 @@
       <c r="F176" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G176" s="11"/>
-      <c r="H176" s="11"/>
-      <c r="I176" s="11"/>
-      <c r="J176" s="11"/>
-      <c r="K176" s="11"/>
-      <c r="L176" s="11"/>
-      <c r="M176" s="11"/>
-      <c r="N176" s="11"/>
-      <c r="O176" s="11"/>
-      <c r="P176" s="11"/>
-      <c r="Q176" s="11"/>
-      <c r="R176" s="11"/>
+      <c r="G176" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H176" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="I176" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="J176" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="K176" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="L176" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="M176" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="N176" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="O176" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="P176" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q176" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R176" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="S176" s="10"/>
       <c r="T176" s="10"/>
     </row>
@@ -8032,18 +8371,42 @@
       <c r="F177" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G177" s="11"/>
-      <c r="H177" s="11"/>
-      <c r="I177" s="11"/>
-      <c r="J177" s="11"/>
-      <c r="K177" s="11"/>
-      <c r="L177" s="11"/>
-      <c r="M177" s="11"/>
-      <c r="N177" s="11"/>
-      <c r="O177" s="11"/>
-      <c r="P177" s="11"/>
-      <c r="Q177" s="11"/>
-      <c r="R177" s="11"/>
+      <c r="G177" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H177" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I177" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="J177" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="K177" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="L177" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="M177" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="N177" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="O177" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="P177" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q177" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="R177" s="11" t="n">
+        <v>10</v>
+      </c>
       <c r="S177" s="10"/>
       <c r="T177" s="10"/>
     </row>
@@ -8066,18 +8429,42 @@
       <c r="F178" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G178" s="11"/>
-      <c r="H178" s="11"/>
-      <c r="I178" s="11"/>
-      <c r="J178" s="11"/>
-      <c r="K178" s="11"/>
-      <c r="L178" s="11"/>
-      <c r="M178" s="11"/>
-      <c r="N178" s="11"/>
-      <c r="O178" s="11"/>
-      <c r="P178" s="11"/>
-      <c r="Q178" s="11"/>
-      <c r="R178" s="11"/>
+      <c r="G178" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H178" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I178" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="J178" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="K178" s="11" t="n">
+        <v>65</v>
+      </c>
+      <c r="L178" s="11" t="n">
+        <v>120</v>
+      </c>
+      <c r="M178" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="N178" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="O178" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P178" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q178" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R178" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S178" s="10"/>
       <c r="T178" s="10"/>
     </row>
@@ -8100,18 +8487,42 @@
       <c r="F179" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G179" s="11"/>
-      <c r="H179" s="11"/>
-      <c r="I179" s="11"/>
-      <c r="J179" s="11"/>
-      <c r="K179" s="11"/>
-      <c r="L179" s="11"/>
-      <c r="M179" s="11"/>
-      <c r="N179" s="11"/>
-      <c r="O179" s="11"/>
-      <c r="P179" s="11"/>
-      <c r="Q179" s="11"/>
-      <c r="R179" s="11"/>
+      <c r="G179" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H179" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I179" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="J179" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="K179" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="L179" s="11" t="n">
+        <v>51</v>
+      </c>
+      <c r="M179" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="N179" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="O179" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="P179" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q179" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="R179" s="11" t="n">
+        <v>25</v>
+      </c>
       <c r="S179" s="10"/>
       <c r="T179" s="10"/>
     </row>
@@ -8134,18 +8545,42 @@
       <c r="F180" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G180" s="11"/>
-      <c r="H180" s="11"/>
-      <c r="I180" s="11"/>
-      <c r="J180" s="11"/>
-      <c r="K180" s="11"/>
-      <c r="L180" s="11"/>
-      <c r="M180" s="11"/>
-      <c r="N180" s="11"/>
-      <c r="O180" s="11"/>
-      <c r="P180" s="11"/>
-      <c r="Q180" s="11"/>
-      <c r="R180" s="11"/>
+      <c r="G180" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H180" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I180" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="J180" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="K180" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="L180" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="M180" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="N180" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="O180" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="P180" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q180" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R180" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="S180" s="10"/>
       <c r="T180" s="10"/>
     </row>
@@ -8168,18 +8603,42 @@
       <c r="F181" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G181" s="11"/>
-      <c r="H181" s="11"/>
-      <c r="I181" s="11"/>
-      <c r="J181" s="11"/>
-      <c r="K181" s="11"/>
-      <c r="L181" s="11"/>
-      <c r="M181" s="11"/>
-      <c r="N181" s="11"/>
-      <c r="O181" s="11"/>
-      <c r="P181" s="11"/>
-      <c r="Q181" s="11"/>
-      <c r="R181" s="11"/>
+      <c r="G181" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H181" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I181" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="J181" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="K181" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="L181" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="M181" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="N181" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="O181" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="P181" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q181" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="R181" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="S181" s="10"/>
       <c r="T181" s="10"/>
     </row>
@@ -8202,18 +8661,42 @@
       <c r="F182" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G182" s="11"/>
-      <c r="H182" s="11"/>
-      <c r="I182" s="11"/>
-      <c r="J182" s="11"/>
-      <c r="K182" s="11"/>
-      <c r="L182" s="11"/>
-      <c r="M182" s="11"/>
-      <c r="N182" s="11"/>
-      <c r="O182" s="11"/>
-      <c r="P182" s="11"/>
-      <c r="Q182" s="11"/>
-      <c r="R182" s="11"/>
+      <c r="G182" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H182" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I182" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="J182" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="K182" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="L182" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="M182" s="11" t="n">
+        <v>41</v>
+      </c>
+      <c r="N182" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="O182" s="11" t="n">
+        <v>44</v>
+      </c>
+      <c r="P182" s="11" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q182" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R182" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="S182" s="10"/>
       <c r="T182" s="10"/>
     </row>
@@ -8236,18 +8719,42 @@
       <c r="F183" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G183" s="11"/>
-      <c r="H183" s="11"/>
-      <c r="I183" s="11"/>
-      <c r="J183" s="11"/>
-      <c r="K183" s="11"/>
-      <c r="L183" s="11"/>
-      <c r="M183" s="11"/>
-      <c r="N183" s="11"/>
-      <c r="O183" s="11"/>
-      <c r="P183" s="11"/>
-      <c r="Q183" s="11"/>
-      <c r="R183" s="11"/>
+      <c r="G183" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H183" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I183" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="J183" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="K183" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L183" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="M183" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="N183" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="O183" s="11" t="n">
+        <v>65</v>
+      </c>
+      <c r="P183" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q183" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="R183" s="11" t="n">
+        <v>10</v>
+      </c>
       <c r="S183" s="10"/>
       <c r="T183" s="10"/>
     </row>
@@ -8270,18 +8777,42 @@
       <c r="F184" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G184" s="11"/>
-      <c r="H184" s="11"/>
-      <c r="I184" s="11"/>
-      <c r="J184" s="11"/>
-      <c r="K184" s="11"/>
-      <c r="L184" s="11"/>
-      <c r="M184" s="11"/>
-      <c r="N184" s="11"/>
-      <c r="O184" s="11"/>
-      <c r="P184" s="11"/>
-      <c r="Q184" s="11"/>
-      <c r="R184" s="11"/>
+      <c r="G184" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H184" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I184" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="J184" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="K184" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="L184" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="M184" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="N184" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="O184" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="P184" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q184" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="R184" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S184" s="10"/>
       <c r="T184" s="10"/>
     </row>
@@ -8304,18 +8835,42 @@
       <c r="F185" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G185" s="11"/>
-      <c r="H185" s="11"/>
-      <c r="I185" s="11"/>
-      <c r="J185" s="11"/>
-      <c r="K185" s="11"/>
-      <c r="L185" s="11"/>
-      <c r="M185" s="11"/>
-      <c r="N185" s="11"/>
-      <c r="O185" s="11"/>
-      <c r="P185" s="11"/>
-      <c r="Q185" s="11"/>
-      <c r="R185" s="11"/>
+      <c r="G185" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H185" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I185" s="11" t="n">
+        <v>106</v>
+      </c>
+      <c r="J185" s="11" t="n">
+        <v>92</v>
+      </c>
+      <c r="K185" s="11" t="n">
+        <v>66</v>
+      </c>
+      <c r="L185" s="11" t="n">
+        <v>122</v>
+      </c>
+      <c r="M185" s="11" t="n">
+        <v>72</v>
+      </c>
+      <c r="N185" s="11" t="n">
+        <v>43</v>
+      </c>
+      <c r="O185" s="11" t="n">
+        <v>41</v>
+      </c>
+      <c r="P185" s="11" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q185" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="R185" s="11" t="n">
+        <v>47</v>
+      </c>
       <c r="S185" s="10"/>
       <c r="T185" s="10"/>
     </row>
@@ -8338,18 +8893,42 @@
       <c r="F186" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G186" s="11"/>
-      <c r="H186" s="11"/>
-      <c r="I186" s="11"/>
-      <c r="J186" s="11"/>
-      <c r="K186" s="11"/>
-      <c r="L186" s="11"/>
-      <c r="M186" s="11"/>
-      <c r="N186" s="11"/>
-      <c r="O186" s="11"/>
-      <c r="P186" s="11"/>
-      <c r="Q186" s="11"/>
-      <c r="R186" s="11"/>
+      <c r="G186" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H186" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="I186" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="J186" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="K186" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="L186" s="11" t="n">
+        <v>65</v>
+      </c>
+      <c r="M186" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="N186" s="11" t="n">
+        <v>33</v>
+      </c>
+      <c r="O186" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="P186" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q186" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="R186" s="11" t="n">
+        <v>10</v>
+      </c>
       <c r="S186" s="10"/>
       <c r="T186" s="10"/>
     </row>
@@ -8372,18 +8951,42 @@
       <c r="F187" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G187" s="11"/>
-      <c r="H187" s="11"/>
-      <c r="I187" s="11"/>
-      <c r="J187" s="11"/>
-      <c r="K187" s="11"/>
-      <c r="L187" s="11"/>
-      <c r="M187" s="11"/>
-      <c r="N187" s="11"/>
-      <c r="O187" s="11"/>
-      <c r="P187" s="11"/>
-      <c r="Q187" s="11"/>
-      <c r="R187" s="11"/>
+      <c r="G187" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H187" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="I187" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="J187" s="11" t="n">
+        <v>120</v>
+      </c>
+      <c r="K187" s="11" t="n">
+        <v>120</v>
+      </c>
+      <c r="L187" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="M187" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="N187" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="O187" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="P187" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q187" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="R187" s="11" t="n">
+        <v>30</v>
+      </c>
       <c r="S187" s="10"/>
       <c r="T187" s="10"/>
     </row>
@@ -8406,18 +9009,42 @@
       <c r="F188" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G188" s="11"/>
-      <c r="H188" s="11"/>
-      <c r="I188" s="11"/>
-      <c r="J188" s="11"/>
-      <c r="K188" s="11"/>
-      <c r="L188" s="11"/>
-      <c r="M188" s="11"/>
-      <c r="N188" s="11"/>
-      <c r="O188" s="11"/>
-      <c r="P188" s="11"/>
-      <c r="Q188" s="11"/>
-      <c r="R188" s="11"/>
+      <c r="G188" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H188" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I188" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J188" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="K188" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="L188" s="11" t="n">
+        <v>33</v>
+      </c>
+      <c r="M188" s="11" t="n">
+        <v>32</v>
+      </c>
+      <c r="N188" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="O188" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="P188" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q188" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="R188" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="S188" s="10"/>
       <c r="T188" s="10"/>
     </row>
@@ -8440,18 +9067,42 @@
       <c r="F189" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="G189" s="11"/>
-      <c r="H189" s="11"/>
-      <c r="I189" s="11"/>
-      <c r="J189" s="11"/>
-      <c r="K189" s="11"/>
-      <c r="L189" s="11"/>
-      <c r="M189" s="11"/>
-      <c r="N189" s="11"/>
-      <c r="O189" s="11"/>
-      <c r="P189" s="11"/>
-      <c r="Q189" s="11"/>
-      <c r="R189" s="11"/>
+      <c r="G189" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H189" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I189" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="J189" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K189" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="L189" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M189" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N189" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O189" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P189" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q189" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R189" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S189" s="10"/>
       <c r="T189" s="10"/>
     </row>
@@ -8474,18 +9125,42 @@
       <c r="F190" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="G190" s="11"/>
-      <c r="H190" s="11"/>
-      <c r="I190" s="11"/>
-      <c r="J190" s="11"/>
-      <c r="K190" s="11"/>
-      <c r="L190" s="11"/>
-      <c r="M190" s="11"/>
-      <c r="N190" s="11"/>
-      <c r="O190" s="11"/>
-      <c r="P190" s="11"/>
-      <c r="Q190" s="11"/>
-      <c r="R190" s="11"/>
+      <c r="G190" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H190" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="I190" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="J190" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="K190" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="L190" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="M190" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N190" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O190" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P190" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q190" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R190" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S190" s="10"/>
       <c r="T190" s="10"/>
     </row>
@@ -8508,18 +9183,42 @@
       <c r="F191" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G191" s="11"/>
-      <c r="H191" s="11"/>
-      <c r="I191" s="11"/>
-      <c r="J191" s="11"/>
-      <c r="K191" s="11"/>
-      <c r="L191" s="11"/>
-      <c r="M191" s="11"/>
-      <c r="N191" s="11"/>
-      <c r="O191" s="11"/>
-      <c r="P191" s="11"/>
-      <c r="Q191" s="11"/>
-      <c r="R191" s="11"/>
+      <c r="G191" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H191" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I191" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J191" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="K191" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="L191" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="M191" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="N191" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="O191" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P191" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q191" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R191" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S191" s="10"/>
       <c r="T191" s="10"/>
     </row>
@@ -8542,18 +9241,42 @@
       <c r="F192" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G192" s="11"/>
-      <c r="H192" s="11"/>
-      <c r="I192" s="11"/>
-      <c r="J192" s="11"/>
-      <c r="K192" s="11"/>
-      <c r="L192" s="11"/>
-      <c r="M192" s="11"/>
-      <c r="N192" s="11"/>
-      <c r="O192" s="11"/>
-      <c r="P192" s="11"/>
-      <c r="Q192" s="11"/>
-      <c r="R192" s="11"/>
+      <c r="G192" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H192" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I192" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="J192" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="K192" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="L192" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="M192" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="N192" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="O192" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P192" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q192" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R192" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S192" s="10"/>
       <c r="T192" s="10"/>
     </row>
@@ -8576,18 +9299,42 @@
       <c r="F193" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="G193" s="11"/>
-      <c r="H193" s="11"/>
-      <c r="I193" s="11"/>
-      <c r="J193" s="11"/>
-      <c r="K193" s="11"/>
-      <c r="L193" s="11"/>
-      <c r="M193" s="11"/>
-      <c r="N193" s="11"/>
-      <c r="O193" s="11"/>
-      <c r="P193" s="11"/>
-      <c r="Q193" s="11"/>
-      <c r="R193" s="11"/>
+      <c r="G193" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H193" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I193" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="J193" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="K193" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="L193" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="M193" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="N193" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="O193" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P193" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q193" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R193" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="S193" s="10"/>
       <c r="T193" s="10"/>
     </row>
@@ -8610,18 +9357,42 @@
       <c r="F194" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="G194" s="11"/>
-      <c r="H194" s="11"/>
-      <c r="I194" s="11"/>
-      <c r="J194" s="11"/>
-      <c r="K194" s="11"/>
-      <c r="L194" s="11"/>
-      <c r="M194" s="11"/>
-      <c r="N194" s="11"/>
-      <c r="O194" s="11"/>
-      <c r="P194" s="11"/>
-      <c r="Q194" s="11"/>
-      <c r="R194" s="11"/>
+      <c r="G194" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H194" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I194" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="J194" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="K194" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="L194" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="M194" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="N194" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="O194" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="P194" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q194" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="R194" s="11" t="n">
+        <v>40</v>
+      </c>
       <c r="S194" s="10"/>
       <c r="T194" s="10"/>
     </row>
@@ -8644,18 +9415,42 @@
       <c r="F195" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G195" s="11"/>
-      <c r="H195" s="11"/>
-      <c r="I195" s="11"/>
-      <c r="J195" s="11"/>
-      <c r="K195" s="11"/>
-      <c r="L195" s="11"/>
-      <c r="M195" s="11"/>
-      <c r="N195" s="11"/>
-      <c r="O195" s="11"/>
-      <c r="P195" s="11"/>
-      <c r="Q195" s="11"/>
-      <c r="R195" s="11"/>
+      <c r="G195" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H195" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I195" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J195" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K195" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="L195" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="M195" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N195" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O195" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P195" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q195" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R195" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S195" s="10"/>
       <c r="T195" s="10"/>
     </row>
@@ -8678,18 +9473,42 @@
       <c r="F196" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G196" s="11"/>
-      <c r="H196" s="11"/>
-      <c r="I196" s="11"/>
-      <c r="J196" s="11"/>
-      <c r="K196" s="11"/>
-      <c r="L196" s="11"/>
-      <c r="M196" s="11"/>
-      <c r="N196" s="11"/>
-      <c r="O196" s="11"/>
-      <c r="P196" s="11"/>
-      <c r="Q196" s="11"/>
-      <c r="R196" s="11"/>
+      <c r="G196" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H196" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I196" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="J196" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="K196" s="11" t="n">
+        <v>120</v>
+      </c>
+      <c r="L196" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="M196" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="N196" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="O196" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="P196" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q196" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="R196" s="11" t="n">
+        <v>10</v>
+      </c>
       <c r="S196" s="10"/>
       <c r="T196" s="10"/>
     </row>
@@ -8712,18 +9531,42 @@
       <c r="F197" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G197" s="11"/>
-      <c r="H197" s="11"/>
-      <c r="I197" s="11"/>
-      <c r="J197" s="11"/>
-      <c r="K197" s="11"/>
-      <c r="L197" s="11"/>
-      <c r="M197" s="11"/>
-      <c r="N197" s="11"/>
-      <c r="O197" s="11"/>
-      <c r="P197" s="11"/>
-      <c r="Q197" s="11"/>
-      <c r="R197" s="11"/>
+      <c r="G197" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H197" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="I197" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="J197" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K197" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="L197" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="M197" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N197" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O197" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P197" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q197" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R197" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S197" s="10"/>
       <c r="T197" s="10"/>
     </row>
@@ -8746,18 +9589,42 @@
       <c r="F198" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G198" s="11"/>
-      <c r="H198" s="11"/>
-      <c r="I198" s="11"/>
-      <c r="J198" s="11"/>
-      <c r="K198" s="11"/>
-      <c r="L198" s="11"/>
-      <c r="M198" s="11"/>
-      <c r="N198" s="11"/>
-      <c r="O198" s="11"/>
-      <c r="P198" s="11"/>
-      <c r="Q198" s="11"/>
-      <c r="R198" s="11"/>
+      <c r="G198" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H198" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I198" s="11" t="n">
+        <v>110</v>
+      </c>
+      <c r="J198" s="11" t="n">
+        <v>160</v>
+      </c>
+      <c r="K198" s="11" t="n">
+        <v>130</v>
+      </c>
+      <c r="L198" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="M198" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="N198" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="O198" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="P198" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q198" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R198" s="11" t="n">
+        <v>3</v>
+      </c>
       <c r="S198" s="10"/>
       <c r="T198" s="10"/>
     </row>
@@ -8780,18 +9647,42 @@
       <c r="F199" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G199" s="11"/>
-      <c r="H199" s="11"/>
-      <c r="I199" s="11"/>
-      <c r="J199" s="11"/>
-      <c r="K199" s="11"/>
-      <c r="L199" s="11"/>
-      <c r="M199" s="11"/>
-      <c r="N199" s="11"/>
-      <c r="O199" s="11"/>
-      <c r="P199" s="11"/>
-      <c r="Q199" s="11"/>
-      <c r="R199" s="11"/>
+      <c r="G199" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H199" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I199" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="J199" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="K199" s="11" t="n">
+        <v>105</v>
+      </c>
+      <c r="L199" s="11" t="n">
+        <v>105</v>
+      </c>
+      <c r="M199" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="N199" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="O199" s="11" t="n">
+        <v>177</v>
+      </c>
+      <c r="P199" s="11" t="n">
+        <v>82</v>
+      </c>
+      <c r="Q199" s="11" t="n">
+        <v>82</v>
+      </c>
+      <c r="R199" s="11" t="n">
+        <v>3</v>
+      </c>
       <c r="S199" s="10"/>
       <c r="T199" s="10"/>
     </row>
@@ -8814,18 +9705,42 @@
       <c r="F200" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G200" s="11"/>
-      <c r="H200" s="11"/>
-      <c r="I200" s="11"/>
-      <c r="J200" s="11"/>
-      <c r="K200" s="11"/>
-      <c r="L200" s="11"/>
-      <c r="M200" s="11"/>
-      <c r="N200" s="11"/>
-      <c r="O200" s="11"/>
-      <c r="P200" s="11"/>
-      <c r="Q200" s="11"/>
-      <c r="R200" s="11"/>
+      <c r="G200" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H200" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I200" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="J200" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="K200" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="L200" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="M200" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="N200" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="O200" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P200" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q200" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R200" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S200" s="10"/>
       <c r="T200" s="10"/>
     </row>
@@ -8848,18 +9763,42 @@
       <c r="F201" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G201" s="11"/>
-      <c r="H201" s="11"/>
-      <c r="I201" s="11"/>
-      <c r="J201" s="11"/>
-      <c r="K201" s="11"/>
-      <c r="L201" s="11"/>
-      <c r="M201" s="11"/>
-      <c r="N201" s="11"/>
-      <c r="O201" s="11"/>
-      <c r="P201" s="11"/>
-      <c r="Q201" s="11"/>
-      <c r="R201" s="11"/>
+      <c r="G201" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H201" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="I201" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J201" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K201" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="L201" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M201" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O201" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P201" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q201" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R201" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S201" s="10"/>
       <c r="T201" s="10"/>
     </row>
@@ -8882,18 +9821,42 @@
       <c r="F202" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G202" s="11"/>
-      <c r="H202" s="11"/>
-      <c r="I202" s="11"/>
-      <c r="J202" s="11"/>
-      <c r="K202" s="11"/>
-      <c r="L202" s="11"/>
-      <c r="M202" s="11"/>
-      <c r="N202" s="11"/>
-      <c r="O202" s="11"/>
-      <c r="P202" s="11"/>
-      <c r="Q202" s="11"/>
-      <c r="R202" s="11"/>
+      <c r="G202" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H202" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I202" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="J202" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="K202" s="11" t="n">
+        <v>120</v>
+      </c>
+      <c r="L202" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="M202" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="N202" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="O202" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="P202" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q202" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="R202" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="S202" s="10"/>
       <c r="T202" s="10"/>
     </row>
@@ -8916,18 +9879,42 @@
       <c r="F203" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G203" s="11"/>
-      <c r="H203" s="11"/>
-      <c r="I203" s="11"/>
-      <c r="J203" s="11"/>
-      <c r="K203" s="11"/>
-      <c r="L203" s="11"/>
-      <c r="M203" s="11"/>
-      <c r="N203" s="11"/>
-      <c r="O203" s="11"/>
-      <c r="P203" s="11"/>
-      <c r="Q203" s="11"/>
-      <c r="R203" s="11"/>
+      <c r="G203" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H203" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I203" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="J203" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K203" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="L203" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="M203" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="N203" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="O203" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P203" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q203" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R203" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="S203" s="10"/>
       <c r="T203" s="10"/>
     </row>
@@ -8950,18 +9937,42 @@
       <c r="F204" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G204" s="11"/>
-      <c r="H204" s="11"/>
-      <c r="I204" s="11"/>
-      <c r="J204" s="11"/>
-      <c r="K204" s="11"/>
-      <c r="L204" s="11"/>
-      <c r="M204" s="11"/>
-      <c r="N204" s="11"/>
-      <c r="O204" s="11"/>
-      <c r="P204" s="11"/>
-      <c r="Q204" s="11"/>
-      <c r="R204" s="11"/>
+      <c r="G204" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H204" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I204" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="J204" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K204" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L204" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M204" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N204" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O204" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P204" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q204" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R204" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S204" s="10"/>
       <c r="T204" s="10"/>
     </row>
@@ -8984,18 +9995,40 @@
       <c r="F205" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="G205" s="11"/>
-      <c r="H205" s="11"/>
-      <c r="I205" s="11"/>
-      <c r="J205" s="11"/>
-      <c r="K205" s="11"/>
-      <c r="L205" s="11"/>
-      <c r="M205" s="11"/>
-      <c r="N205" s="11"/>
-      <c r="O205" s="11"/>
+      <c r="G205" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H205" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I205" s="11" t="n">
+        <v>28</v>
+      </c>
+      <c r="J205" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="K205" s="11" t="n">
+        <v>23</v>
+      </c>
+      <c r="L205" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="M205" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="N205" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O205" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="P205" s="11"/>
-      <c r="Q205" s="11"/>
-      <c r="R205" s="11"/>
+      <c r="Q205" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R205" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S205" s="10"/>
       <c r="T205" s="10"/>
     </row>
@@ -9018,18 +10051,42 @@
       <c r="F206" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="G206" s="11"/>
-      <c r="H206" s="11"/>
-      <c r="I206" s="11"/>
-      <c r="J206" s="11"/>
-      <c r="K206" s="11"/>
-      <c r="L206" s="11"/>
-      <c r="M206" s="11"/>
-      <c r="N206" s="11"/>
-      <c r="O206" s="11"/>
-      <c r="P206" s="11"/>
-      <c r="Q206" s="11"/>
-      <c r="R206" s="11"/>
+      <c r="G206" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H206" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I206" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="J206" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="K206" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="L206" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="M206" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="N206" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="O206" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="P206" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q206" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R206" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S206" s="10"/>
       <c r="T206" s="10"/>
     </row>
@@ -9052,18 +10109,42 @@
       <c r="F207" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="G207" s="11"/>
-      <c r="H207" s="11"/>
-      <c r="I207" s="11"/>
-      <c r="J207" s="11"/>
-      <c r="K207" s="11"/>
-      <c r="L207" s="11"/>
-      <c r="M207" s="11"/>
-      <c r="N207" s="11"/>
-      <c r="O207" s="11"/>
-      <c r="P207" s="11"/>
-      <c r="Q207" s="11"/>
-      <c r="R207" s="11"/>
+      <c r="G207" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H207" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I207" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="J207" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="K207" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="L207" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="M207" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="N207" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="O207" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="P207" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q207" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="R207" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S207" s="10"/>
       <c r="T207" s="10"/>
     </row>
@@ -9086,18 +10167,42 @@
       <c r="F208" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G208" s="11"/>
-      <c r="H208" s="11"/>
-      <c r="I208" s="11"/>
-      <c r="J208" s="11"/>
-      <c r="K208" s="11"/>
-      <c r="L208" s="11"/>
-      <c r="M208" s="11"/>
-      <c r="N208" s="11"/>
-      <c r="O208" s="11"/>
-      <c r="P208" s="11"/>
-      <c r="Q208" s="11"/>
-      <c r="R208" s="11"/>
+      <c r="G208" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H208" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I208" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="J208" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="K208" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="L208" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="M208" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="N208" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="O208" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="P208" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q208" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="R208" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="S208" s="10"/>
       <c r="T208" s="10"/>
     </row>
@@ -9120,18 +10225,42 @@
       <c r="F209" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G209" s="11"/>
-      <c r="H209" s="11"/>
-      <c r="I209" s="11"/>
-      <c r="J209" s="11"/>
-      <c r="K209" s="11"/>
-      <c r="L209" s="11"/>
-      <c r="M209" s="11"/>
-      <c r="N209" s="11"/>
-      <c r="O209" s="11"/>
-      <c r="P209" s="11"/>
-      <c r="Q209" s="11"/>
-      <c r="R209" s="11"/>
+      <c r="G209" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H209" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I209" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="J209" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="K209" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="L209" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="M209" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="N209" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="O209" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="P209" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q209" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="R209" s="11" t="n">
+        <v>20</v>
+      </c>
       <c r="S209" s="10"/>
       <c r="T209" s="10"/>
     </row>
@@ -9154,18 +10283,42 @@
       <c r="F210" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="G210" s="11"/>
-      <c r="H210" s="11"/>
-      <c r="I210" s="11"/>
-      <c r="J210" s="11"/>
-      <c r="K210" s="11"/>
-      <c r="L210" s="11"/>
-      <c r="M210" s="11"/>
-      <c r="N210" s="11"/>
-      <c r="O210" s="11"/>
-      <c r="P210" s="11"/>
-      <c r="Q210" s="11"/>
-      <c r="R210" s="11"/>
+      <c r="G210" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H210" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I210" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="J210" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K210" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="L210" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M210" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O210" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P210" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q210" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R210" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S210" s="10"/>
       <c r="T210" s="10"/>
     </row>
@@ -9188,18 +10341,42 @@
       <c r="F211" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="G211" s="11"/>
-      <c r="H211" s="11"/>
-      <c r="I211" s="11"/>
-      <c r="J211" s="11"/>
-      <c r="K211" s="11"/>
-      <c r="L211" s="11"/>
-      <c r="M211" s="11"/>
-      <c r="N211" s="11"/>
-      <c r="O211" s="11"/>
-      <c r="P211" s="11"/>
-      <c r="Q211" s="11"/>
-      <c r="R211" s="11"/>
+      <c r="G211" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H211" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I211" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="J211" s="11" t="n">
+        <v>166</v>
+      </c>
+      <c r="K211" s="11" t="n">
+        <v>144</v>
+      </c>
+      <c r="L211" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="M211" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N211" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O211" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P211" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q211" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R211" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S211" s="10"/>
       <c r="T211" s="10"/>
     </row>
@@ -9222,18 +10399,42 @@
       <c r="F212" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G212" s="11"/>
-      <c r="H212" s="11"/>
-      <c r="I212" s="11"/>
-      <c r="J212" s="11"/>
-      <c r="K212" s="11"/>
-      <c r="L212" s="11"/>
-      <c r="M212" s="11"/>
-      <c r="N212" s="11"/>
-      <c r="O212" s="11"/>
-      <c r="P212" s="11"/>
-      <c r="Q212" s="11"/>
-      <c r="R212" s="11"/>
+      <c r="G212" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H212" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I212" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="J212" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="K212" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="L212" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="M212" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="N212" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="O212" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="P212" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q212" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="R212" s="11" t="n">
+        <v>12</v>
+      </c>
       <c r="S212" s="10"/>
       <c r="T212" s="10"/>
     </row>
@@ -9256,18 +10457,18 @@
       <c r="F213" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G213" s="11"/>
-      <c r="H213" s="11"/>
-      <c r="I213" s="11"/>
-      <c r="J213" s="11"/>
-      <c r="K213" s="11"/>
-      <c r="L213" s="11"/>
-      <c r="M213" s="11"/>
-      <c r="N213" s="11"/>
-      <c r="O213" s="11"/>
-      <c r="P213" s="11"/>
-      <c r="Q213" s="11"/>
-      <c r="R213" s="11"/>
+      <c r="G213" s="10"/>
+      <c r="H213" s="10"/>
+      <c r="I213" s="10"/>
+      <c r="J213" s="10"/>
+      <c r="K213" s="10"/>
+      <c r="L213" s="10"/>
+      <c r="M213" s="10"/>
+      <c r="N213" s="10"/>
+      <c r="O213" s="10"/>
+      <c r="P213" s="10"/>
+      <c r="Q213" s="10"/>
+      <c r="R213" s="10"/>
       <c r="S213" s="10"/>
       <c r="T213" s="10"/>
     </row>
@@ -9290,18 +10491,42 @@
       <c r="F214" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="G214" s="11"/>
-      <c r="H214" s="11"/>
-      <c r="I214" s="11"/>
-      <c r="J214" s="11"/>
-      <c r="K214" s="11"/>
-      <c r="L214" s="11"/>
-      <c r="M214" s="11"/>
-      <c r="N214" s="11"/>
-      <c r="O214" s="11"/>
-      <c r="P214" s="11"/>
-      <c r="Q214" s="11"/>
-      <c r="R214" s="11"/>
+      <c r="G214" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H214" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I214" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J214" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K214" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="L214" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M214" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="N214" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O214" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P214" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q214" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R214" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S214" s="10"/>
       <c r="T214" s="10"/>
     </row>
@@ -9324,18 +10549,42 @@
       <c r="F215" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="G215" s="11"/>
-      <c r="H215" s="11"/>
-      <c r="I215" s="11"/>
-      <c r="J215" s="11"/>
-      <c r="K215" s="11"/>
-      <c r="L215" s="11"/>
-      <c r="M215" s="11"/>
-      <c r="N215" s="11"/>
-      <c r="O215" s="11"/>
-      <c r="P215" s="11"/>
-      <c r="Q215" s="11"/>
-      <c r="R215" s="11"/>
+      <c r="G215" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H215" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="I215" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="J215" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="K215" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="L215" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="M215" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N215" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="O215" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P215" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q215" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R215" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="S215" s="10"/>
       <c r="T215" s="10"/>
     </row>
@@ -9358,18 +10607,42 @@
       <c r="F216" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="G216" s="11"/>
-      <c r="H216" s="11"/>
-      <c r="I216" s="11"/>
-      <c r="J216" s="11"/>
-      <c r="K216" s="11"/>
-      <c r="L216" s="11"/>
-      <c r="M216" s="11"/>
-      <c r="N216" s="11"/>
-      <c r="O216" s="11"/>
-      <c r="P216" s="11"/>
-      <c r="Q216" s="11"/>
-      <c r="R216" s="11"/>
+      <c r="G216" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H216" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I216" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="J216" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="K216" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="L216" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="M216" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="N216" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="O216" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="P216" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q216" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="R216" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S216" s="10"/>
       <c r="T216" s="10"/>
     </row>
@@ -9392,18 +10665,42 @@
       <c r="F217" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G217" s="11"/>
-      <c r="H217" s="11"/>
-      <c r="I217" s="11"/>
-      <c r="J217" s="11"/>
-      <c r="K217" s="11"/>
-      <c r="L217" s="11"/>
-      <c r="M217" s="11"/>
-      <c r="N217" s="11"/>
-      <c r="O217" s="11"/>
-      <c r="P217" s="11"/>
-      <c r="Q217" s="11"/>
-      <c r="R217" s="11"/>
+      <c r="G217" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H217" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I217" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="J217" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="K217" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="L217" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="M217" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="N217" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="O217" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="P217" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q217" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="R217" s="11" t="n">
+        <v>10</v>
+      </c>
       <c r="S217" s="10"/>
       <c r="T217" s="10"/>
     </row>
@@ -9426,18 +10723,18 @@
       <c r="F218" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G218" s="11"/>
-      <c r="H218" s="11"/>
-      <c r="I218" s="11"/>
-      <c r="J218" s="11"/>
-      <c r="K218" s="11"/>
-      <c r="L218" s="11"/>
-      <c r="M218" s="11"/>
-      <c r="N218" s="11"/>
-      <c r="O218" s="11"/>
-      <c r="P218" s="11"/>
-      <c r="Q218" s="11"/>
-      <c r="R218" s="11"/>
+      <c r="G218" s="10"/>
+      <c r="H218" s="10"/>
+      <c r="I218" s="10"/>
+      <c r="J218" s="10"/>
+      <c r="K218" s="10"/>
+      <c r="L218" s="10"/>
+      <c r="M218" s="10"/>
+      <c r="N218" s="10"/>
+      <c r="O218" s="10"/>
+      <c r="P218" s="10"/>
+      <c r="Q218" s="10"/>
+      <c r="R218" s="10"/>
       <c r="S218" s="10"/>
       <c r="T218" s="10"/>
     </row>
@@ -9460,18 +10757,42 @@
       <c r="F219" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G219" s="11"/>
-      <c r="H219" s="11"/>
-      <c r="I219" s="11"/>
-      <c r="J219" s="11"/>
-      <c r="K219" s="11"/>
-      <c r="L219" s="11"/>
-      <c r="M219" s="11"/>
-      <c r="N219" s="11"/>
-      <c r="O219" s="11"/>
-      <c r="P219" s="11"/>
-      <c r="Q219" s="11"/>
-      <c r="R219" s="11"/>
+      <c r="G219" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H219" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I219" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="J219" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="K219" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="L219" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="M219" s="11" t="n">
+        <v>65</v>
+      </c>
+      <c r="N219" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="O219" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="P219" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q219" s="11" t="n">
+        <v>34</v>
+      </c>
+      <c r="R219" s="11" t="n">
+        <v>15</v>
+      </c>
       <c r="S219" s="10"/>
       <c r="T219" s="10"/>
     </row>
@@ -9494,18 +10815,42 @@
       <c r="F220" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="G220" s="11"/>
-      <c r="H220" s="11"/>
-      <c r="I220" s="11"/>
-      <c r="J220" s="11"/>
-      <c r="K220" s="11"/>
-      <c r="L220" s="11"/>
-      <c r="M220" s="11"/>
-      <c r="N220" s="11"/>
-      <c r="O220" s="11"/>
-      <c r="P220" s="11"/>
-      <c r="Q220" s="11"/>
-      <c r="R220" s="11"/>
+      <c r="G220" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H220" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I220" s="11" t="n">
+        <v>51</v>
+      </c>
+      <c r="J220" s="11" t="n">
+        <v>74</v>
+      </c>
+      <c r="K220" s="11" t="n">
+        <v>92</v>
+      </c>
+      <c r="L220" s="11" t="n">
+        <v>77</v>
+      </c>
+      <c r="M220" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="N220" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="O220" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="P220" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q220" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R220" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S220" s="10"/>
       <c r="T220" s="10"/>
     </row>
@@ -9528,18 +10873,42 @@
       <c r="F221" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="G221" s="11"/>
-      <c r="H221" s="11"/>
-      <c r="I221" s="11"/>
-      <c r="J221" s="11"/>
-      <c r="K221" s="11"/>
-      <c r="L221" s="11"/>
-      <c r="M221" s="11"/>
-      <c r="N221" s="11"/>
-      <c r="O221" s="11"/>
-      <c r="P221" s="11"/>
-      <c r="Q221" s="11"/>
-      <c r="R221" s="11"/>
+      <c r="G221" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H221" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I221" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="J221" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="K221" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="L221" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="M221" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="N221" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="O221" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="P221" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q221" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="R221" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="S221" s="10"/>
       <c r="T221" s="10"/>
     </row>
@@ -9562,18 +10931,42 @@
       <c r="F222" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="G222" s="11"/>
-      <c r="H222" s="11"/>
-      <c r="I222" s="11"/>
-      <c r="J222" s="11"/>
-      <c r="K222" s="11"/>
-      <c r="L222" s="11"/>
-      <c r="M222" s="11"/>
-      <c r="N222" s="11"/>
-      <c r="O222" s="11"/>
-      <c r="P222" s="11"/>
-      <c r="Q222" s="11"/>
-      <c r="R222" s="11"/>
+      <c r="G222" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H222" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I222" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J222" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K222" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="L222" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="M222" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N222" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O222" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P222" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q222" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R222" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S222" s="10"/>
       <c r="T222" s="10"/>
     </row>
@@ -9596,18 +10989,42 @@
       <c r="F223" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="G223" s="11"/>
-      <c r="H223" s="11"/>
-      <c r="I223" s="11"/>
-      <c r="J223" s="11"/>
-      <c r="K223" s="11"/>
-      <c r="L223" s="11"/>
-      <c r="M223" s="11"/>
-      <c r="N223" s="11"/>
-      <c r="O223" s="11"/>
-      <c r="P223" s="11"/>
-      <c r="Q223" s="11"/>
-      <c r="R223" s="11"/>
+      <c r="G223" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H223" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I223" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="J223" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="K223" s="11" t="n">
+        <v>48</v>
+      </c>
+      <c r="L223" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="M223" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="N223" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="O223" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="P223" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q223" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="R223" s="11" t="n">
+        <v>10</v>
+      </c>
       <c r="S223" s="10"/>
       <c r="T223" s="10"/>
     </row>
@@ -9630,18 +11047,42 @@
       <c r="F224" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="G224" s="11"/>
-      <c r="H224" s="11"/>
-      <c r="I224" s="11"/>
-      <c r="J224" s="11"/>
-      <c r="K224" s="11"/>
-      <c r="L224" s="11"/>
-      <c r="M224" s="11"/>
-      <c r="N224" s="11"/>
-      <c r="O224" s="11"/>
-      <c r="P224" s="11"/>
-      <c r="Q224" s="11"/>
-      <c r="R224" s="11"/>
+      <c r="G224" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H224" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I224" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="J224" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="K224" s="11" t="n">
+        <v>141</v>
+      </c>
+      <c r="L224" s="11" t="n">
+        <v>189</v>
+      </c>
+      <c r="M224" s="11" t="n">
+        <v>151</v>
+      </c>
+      <c r="N224" s="11" t="n">
+        <v>250</v>
+      </c>
+      <c r="O224" s="11" t="n">
+        <v>104</v>
+      </c>
+      <c r="P224" s="11" t="n">
+        <v>121</v>
+      </c>
+      <c r="Q224" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="R224" s="11" t="n">
+        <v>20</v>
+      </c>
       <c r="S224" s="10"/>
       <c r="T224" s="10"/>
     </row>
@@ -9664,18 +11105,42 @@
       <c r="F225" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G225" s="11"/>
-      <c r="H225" s="11"/>
-      <c r="I225" s="11"/>
-      <c r="J225" s="11"/>
-      <c r="K225" s="11"/>
-      <c r="L225" s="11"/>
-      <c r="M225" s="11"/>
-      <c r="N225" s="11"/>
-      <c r="O225" s="11"/>
-      <c r="P225" s="11"/>
-      <c r="Q225" s="11"/>
-      <c r="R225" s="11"/>
+      <c r="G225" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H225" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I225" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="J225" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="K225" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="L225" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="M225" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="N225" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="O225" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="P225" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q225" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="R225" s="11" t="n">
+        <v>10</v>
+      </c>
       <c r="S225" s="10"/>
       <c r="T225" s="10"/>
     </row>
@@ -9698,18 +11163,42 @@
       <c r="F226" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="G226" s="11"/>
-      <c r="H226" s="11"/>
-      <c r="I226" s="11"/>
-      <c r="J226" s="11"/>
-      <c r="K226" s="11"/>
-      <c r="L226" s="11"/>
-      <c r="M226" s="11"/>
-      <c r="N226" s="11"/>
-      <c r="O226" s="11"/>
-      <c r="P226" s="11"/>
-      <c r="Q226" s="11"/>
-      <c r="R226" s="11"/>
+      <c r="G226" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H226" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I226" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="J226" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="K226" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="L226" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="M226" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="N226" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="O226" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="P226" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q226" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="R226" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="S226" s="10"/>
       <c r="T226" s="10"/>
     </row>
@@ -9732,18 +11221,42 @@
       <c r="F227" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="G227" s="11"/>
-      <c r="H227" s="11"/>
-      <c r="I227" s="11"/>
-      <c r="J227" s="11"/>
-      <c r="K227" s="11"/>
-      <c r="L227" s="11"/>
-      <c r="M227" s="11"/>
-      <c r="N227" s="11"/>
-      <c r="O227" s="11"/>
-      <c r="P227" s="11"/>
-      <c r="Q227" s="11"/>
-      <c r="R227" s="11"/>
+      <c r="G227" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H227" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I227" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="J227" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="K227" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="L227" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="M227" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="N227" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="O227" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P227" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q227" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R227" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="S227" s="10"/>
       <c r="T227" s="10"/>
     </row>
@@ -9766,18 +11279,18 @@
       <c r="F228" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="G228" s="11"/>
-      <c r="H228" s="11"/>
-      <c r="I228" s="11"/>
-      <c r="J228" s="11"/>
-      <c r="K228" s="11"/>
-      <c r="L228" s="11"/>
-      <c r="M228" s="11"/>
-      <c r="N228" s="11"/>
-      <c r="O228" s="11"/>
-      <c r="P228" s="11"/>
-      <c r="Q228" s="11"/>
-      <c r="R228" s="11"/>
+      <c r="G228" s="10"/>
+      <c r="H228" s="10"/>
+      <c r="I228" s="10"/>
+      <c r="J228" s="10"/>
+      <c r="K228" s="10"/>
+      <c r="L228" s="10"/>
+      <c r="M228" s="10"/>
+      <c r="N228" s="10"/>
+      <c r="O228" s="10"/>
+      <c r="P228" s="10"/>
+      <c r="Q228" s="10"/>
+      <c r="R228" s="10"/>
       <c r="S228" s="10"/>
       <c r="T228" s="10"/>
     </row>
@@ -9800,18 +11313,42 @@
       <c r="F229" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="G229" s="11"/>
-      <c r="H229" s="11"/>
-      <c r="I229" s="11"/>
-      <c r="J229" s="11"/>
-      <c r="K229" s="11"/>
-      <c r="L229" s="11"/>
-      <c r="M229" s="11"/>
-      <c r="N229" s="11"/>
-      <c r="O229" s="11"/>
-      <c r="P229" s="11"/>
-      <c r="Q229" s="11"/>
-      <c r="R229" s="11"/>
+      <c r="G229" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H229" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I229" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="J229" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="K229" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="L229" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="M229" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="N229" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="O229" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="P229" s="11" t="n">
+        <v>72</v>
+      </c>
+      <c r="Q229" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="R229" s="11" t="n">
+        <v>15</v>
+      </c>
       <c r="S229" s="10"/>
       <c r="T229" s="10"/>
     </row>
@@ -9834,18 +11371,42 @@
       <c r="F230" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="G230" s="11"/>
-      <c r="H230" s="11"/>
-      <c r="I230" s="11"/>
-      <c r="J230" s="11"/>
-      <c r="K230" s="11"/>
-      <c r="L230" s="11"/>
-      <c r="M230" s="11"/>
-      <c r="N230" s="11"/>
-      <c r="O230" s="11"/>
-      <c r="P230" s="11"/>
-      <c r="Q230" s="11"/>
-      <c r="R230" s="11"/>
+      <c r="G230" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H230" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I230" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="J230" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="K230" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="L230" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="M230" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="N230" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="O230" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="P230" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="Q230" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="R230" s="11" t="n">
+        <v>10</v>
+      </c>
       <c r="S230" s="10"/>
       <c r="T230" s="10"/>
     </row>
@@ -9868,18 +11429,42 @@
       <c r="F231" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="G231" s="11"/>
-      <c r="H231" s="11"/>
-      <c r="I231" s="11"/>
-      <c r="J231" s="11"/>
-      <c r="K231" s="11"/>
-      <c r="L231" s="11"/>
-      <c r="M231" s="11"/>
-      <c r="N231" s="11"/>
-      <c r="O231" s="11"/>
-      <c r="P231" s="11"/>
-      <c r="Q231" s="11"/>
-      <c r="R231" s="11"/>
+      <c r="G231" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H231" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I231" s="11" t="n">
+        <v>33</v>
+      </c>
+      <c r="J231" s="11" t="n">
+        <v>46</v>
+      </c>
+      <c r="K231" s="11" t="n">
+        <v>73</v>
+      </c>
+      <c r="L231" s="11" t="n">
+        <v>48</v>
+      </c>
+      <c r="M231" s="11" t="n">
+        <v>38</v>
+      </c>
+      <c r="N231" s="11" t="n">
+        <v>53</v>
+      </c>
+      <c r="O231" s="11" t="n">
+        <v>38</v>
+      </c>
+      <c r="P231" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q231" s="11" t="n">
+        <v>38</v>
+      </c>
+      <c r="R231" s="11" t="n">
+        <v>30</v>
+      </c>
       <c r="S231" s="10"/>
       <c r="T231" s="10"/>
     </row>
@@ -9902,18 +11487,42 @@
       <c r="F232" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="G232" s="11"/>
-      <c r="H232" s="11"/>
-      <c r="I232" s="11"/>
-      <c r="J232" s="11"/>
-      <c r="K232" s="11"/>
-      <c r="L232" s="11"/>
-      <c r="M232" s="11"/>
-      <c r="N232" s="11"/>
-      <c r="O232" s="11"/>
-      <c r="P232" s="11"/>
-      <c r="Q232" s="11"/>
-      <c r="R232" s="11"/>
+      <c r="G232" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H232" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I232" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="J232" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="K232" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="L232" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="M232" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="N232" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O232" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P232" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q232" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R232" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S232" s="10"/>
       <c r="T232" s="10"/>
     </row>
@@ -9936,18 +11545,40 @@
       <c r="F233" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="G233" s="11"/>
+      <c r="G233" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="H233" s="11"/>
-      <c r="I233" s="11"/>
-      <c r="J233" s="11"/>
-      <c r="K233" s="11"/>
-      <c r="L233" s="11"/>
-      <c r="M233" s="11"/>
-      <c r="N233" s="11"/>
-      <c r="O233" s="11"/>
-      <c r="P233" s="11"/>
-      <c r="Q233" s="11"/>
-      <c r="R233" s="11"/>
+      <c r="I233" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="J233" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="K233" s="11" t="n">
+        <v>23</v>
+      </c>
+      <c r="L233" s="11" t="n">
+        <v>36</v>
+      </c>
+      <c r="M233" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="N233" s="11" t="n">
+        <v>44</v>
+      </c>
+      <c r="O233" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="P233" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q233" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="R233" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="S233" s="10"/>
       <c r="T233" s="10"/>
     </row>
@@ -9970,18 +11601,42 @@
       <c r="F234" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="G234" s="11"/>
-      <c r="H234" s="11"/>
-      <c r="I234" s="11"/>
-      <c r="J234" s="11"/>
-      <c r="K234" s="11"/>
-      <c r="L234" s="11"/>
-      <c r="M234" s="11"/>
-      <c r="N234" s="11"/>
-      <c r="O234" s="11"/>
-      <c r="P234" s="11"/>
-      <c r="Q234" s="11"/>
-      <c r="R234" s="11"/>
+      <c r="G234" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H234" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="I234" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="J234" s="11" t="n">
+        <v>92</v>
+      </c>
+      <c r="K234" s="11" t="n">
+        <v>91</v>
+      </c>
+      <c r="L234" s="11" t="n">
+        <v>102</v>
+      </c>
+      <c r="M234" s="11" t="n">
+        <v>104</v>
+      </c>
+      <c r="N234" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="O234" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="P234" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q234" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="R234" s="11" t="n">
+        <v>10</v>
+      </c>
       <c r="S234" s="10"/>
       <c r="T234" s="10"/>
     </row>
@@ -10004,18 +11659,42 @@
       <c r="F235" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="G235" s="11"/>
-      <c r="H235" s="11"/>
-      <c r="I235" s="11"/>
-      <c r="J235" s="11"/>
-      <c r="K235" s="11"/>
-      <c r="L235" s="11"/>
-      <c r="M235" s="11"/>
-      <c r="N235" s="11"/>
-      <c r="O235" s="11"/>
-      <c r="P235" s="11"/>
-      <c r="Q235" s="11"/>
-      <c r="R235" s="11"/>
+      <c r="G235" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H235" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I235" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="J235" s="11" t="n">
+        <v>115</v>
+      </c>
+      <c r="K235" s="11" t="n">
+        <v>105</v>
+      </c>
+      <c r="L235" s="11" t="n">
+        <v>85</v>
+      </c>
+      <c r="M235" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="N235" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="O235" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="P235" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q235" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="R235" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="S235" s="10"/>
       <c r="T235" s="10"/>
     </row>
@@ -10038,18 +11717,42 @@
       <c r="F236" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="G236" s="11"/>
-      <c r="H236" s="11"/>
-      <c r="I236" s="11"/>
-      <c r="J236" s="11"/>
-      <c r="K236" s="11"/>
-      <c r="L236" s="11"/>
-      <c r="M236" s="11"/>
-      <c r="N236" s="11"/>
-      <c r="O236" s="11"/>
-      <c r="P236" s="11"/>
-      <c r="Q236" s="11"/>
-      <c r="R236" s="11"/>
+      <c r="G236" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H236" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I236" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="J236" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="K236" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L236" s="11" t="n">
+        <v>27</v>
+      </c>
+      <c r="M236" s="11" t="n">
+        <v>39</v>
+      </c>
+      <c r="N236" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="O236" s="11" t="n">
+        <v>57</v>
+      </c>
+      <c r="P236" s="11" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q236" s="11" t="n">
+        <v>28</v>
+      </c>
+      <c r="R236" s="11" t="n">
+        <v>18</v>
+      </c>
       <c r="S236" s="10"/>
       <c r="T236" s="10"/>
     </row>
@@ -10072,18 +11775,42 @@
       <c r="F237" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="G237" s="11"/>
-      <c r="H237" s="11"/>
-      <c r="I237" s="11"/>
-      <c r="J237" s="11"/>
-      <c r="K237" s="11"/>
-      <c r="L237" s="11"/>
-      <c r="M237" s="11"/>
-      <c r="N237" s="11"/>
-      <c r="O237" s="11"/>
-      <c r="P237" s="11"/>
-      <c r="Q237" s="11"/>
-      <c r="R237" s="11"/>
+      <c r="G237" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H237" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I237" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="J237" s="11" t="n">
+        <v>23</v>
+      </c>
+      <c r="K237" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="L237" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="M237" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="N237" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="O237" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P237" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q237" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R237" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S237" s="10"/>
       <c r="T237" s="10"/>
     </row>
@@ -10106,18 +11833,38 @@
       <c r="F238" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="G238" s="11"/>
-      <c r="H238" s="11"/>
+      <c r="G238" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H238" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="I238" s="11"/>
       <c r="J238" s="11"/>
-      <c r="K238" s="11"/>
-      <c r="L238" s="11"/>
-      <c r="M238" s="11"/>
-      <c r="N238" s="11"/>
-      <c r="O238" s="11"/>
-      <c r="P238" s="11"/>
-      <c r="Q238" s="11"/>
-      <c r="R238" s="11"/>
+      <c r="K238" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="L238" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="M238" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="N238" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="O238" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="P238" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q238" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="R238" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S238" s="10"/>
       <c r="T238" s="10"/>
     </row>
@@ -10140,18 +11887,42 @@
       <c r="F239" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="G239" s="11"/>
-      <c r="H239" s="11"/>
-      <c r="I239" s="11"/>
-      <c r="J239" s="11"/>
-      <c r="K239" s="11"/>
-      <c r="L239" s="11"/>
-      <c r="M239" s="11"/>
-      <c r="N239" s="11"/>
-      <c r="O239" s="11"/>
-      <c r="P239" s="11"/>
-      <c r="Q239" s="11"/>
-      <c r="R239" s="11"/>
+      <c r="G239" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H239" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I239" s="11" t="n">
+        <v>110</v>
+      </c>
+      <c r="J239" s="11" t="n">
+        <v>120</v>
+      </c>
+      <c r="K239" s="11" t="n">
+        <v>110</v>
+      </c>
+      <c r="L239" s="11" t="n">
+        <v>84</v>
+      </c>
+      <c r="M239" s="11" t="n">
+        <v>89</v>
+      </c>
+      <c r="N239" s="11" t="n">
+        <v>62</v>
+      </c>
+      <c r="O239" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="P239" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q239" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="R239" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="S239" s="10"/>
       <c r="T239" s="10"/>
     </row>
@@ -10174,18 +11945,42 @@
       <c r="F240" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="G240" s="11"/>
-      <c r="H240" s="11"/>
-      <c r="I240" s="11"/>
-      <c r="J240" s="11"/>
-      <c r="K240" s="11"/>
-      <c r="L240" s="11"/>
-      <c r="M240" s="11"/>
-      <c r="N240" s="11"/>
-      <c r="O240" s="11"/>
-      <c r="P240" s="11"/>
-      <c r="Q240" s="11"/>
-      <c r="R240" s="11"/>
+      <c r="G240" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H240" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="I240" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="J240" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="K240" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="L240" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="M240" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="N240" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="O240" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="P240" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q240" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="R240" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="S240" s="10"/>
       <c r="T240" s="10"/>
     </row>
@@ -10208,18 +12003,42 @@
       <c r="F241" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="G241" s="11"/>
-      <c r="H241" s="11"/>
-      <c r="I241" s="11"/>
-      <c r="J241" s="11"/>
-      <c r="K241" s="11"/>
-      <c r="L241" s="11"/>
-      <c r="M241" s="11"/>
-      <c r="N241" s="11"/>
-      <c r="O241" s="11"/>
-      <c r="P241" s="11"/>
-      <c r="Q241" s="11"/>
-      <c r="R241" s="11"/>
+      <c r="G241" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H241" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I241" s="11" t="n">
+        <v>23</v>
+      </c>
+      <c r="J241" s="11" t="n">
+        <v>52</v>
+      </c>
+      <c r="K241" s="11" t="n">
+        <v>71</v>
+      </c>
+      <c r="L241" s="11" t="n">
+        <v>78</v>
+      </c>
+      <c r="M241" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="N241" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="O241" s="11" t="n">
+        <v>29</v>
+      </c>
+      <c r="P241" s="11" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q241" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="R241" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S241" s="10"/>
       <c r="T241" s="10"/>
     </row>
@@ -10242,18 +12061,42 @@
       <c r="F242" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="G242" s="11"/>
-      <c r="H242" s="11"/>
-      <c r="I242" s="11"/>
-      <c r="J242" s="11"/>
-      <c r="K242" s="11"/>
-      <c r="L242" s="11"/>
-      <c r="M242" s="11"/>
-      <c r="N242" s="11"/>
-      <c r="O242" s="11"/>
-      <c r="P242" s="11"/>
-      <c r="Q242" s="11"/>
-      <c r="R242" s="11"/>
+      <c r="G242" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H242" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I242" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="J242" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="K242" s="11" t="n">
+        <v>110</v>
+      </c>
+      <c r="L242" s="11" t="n">
+        <v>120</v>
+      </c>
+      <c r="M242" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="N242" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="O242" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P242" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q242" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R242" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S242" s="10"/>
       <c r="T242" s="10"/>
     </row>
@@ -10276,18 +12119,42 @@
       <c r="F243" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="G243" s="11"/>
-      <c r="H243" s="11"/>
-      <c r="I243" s="11"/>
-      <c r="J243" s="11"/>
-      <c r="K243" s="11"/>
-      <c r="L243" s="11"/>
-      <c r="M243" s="11"/>
-      <c r="N243" s="11"/>
-      <c r="O243" s="11"/>
-      <c r="P243" s="11"/>
-      <c r="Q243" s="11"/>
-      <c r="R243" s="11"/>
+      <c r="G243" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H243" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="I243" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="J243" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="K243" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="L243" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="M243" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O243" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P243" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q243" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R243" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="S243" s="10"/>
       <c r="T243" s="10"/>
     </row>
@@ -10310,18 +12177,42 @@
       <c r="F244" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="G244" s="11"/>
-      <c r="H244" s="11"/>
-      <c r="I244" s="11"/>
-      <c r="J244" s="11"/>
-      <c r="K244" s="11"/>
-      <c r="L244" s="11"/>
-      <c r="M244" s="11"/>
-      <c r="N244" s="11"/>
-      <c r="O244" s="11"/>
-      <c r="P244" s="11"/>
-      <c r="Q244" s="11"/>
-      <c r="R244" s="11"/>
+      <c r="G244" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H244" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I244" s="11" t="n">
+        <v>34</v>
+      </c>
+      <c r="J244" s="11" t="n">
+        <v>63</v>
+      </c>
+      <c r="K244" s="11" t="n">
+        <v>101</v>
+      </c>
+      <c r="L244" s="11" t="n">
+        <v>139</v>
+      </c>
+      <c r="M244" s="11" t="n">
+        <v>128</v>
+      </c>
+      <c r="N244" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="O244" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="P244" s="11" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q244" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="R244" s="11" t="n">
+        <v>25</v>
+      </c>
       <c r="S244" s="10"/>
       <c r="T244" s="10"/>
     </row>
@@ -10344,18 +12235,42 @@
       <c r="F245" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="G245" s="11"/>
-      <c r="H245" s="11"/>
-      <c r="I245" s="11"/>
-      <c r="J245" s="11"/>
-      <c r="K245" s="11"/>
-      <c r="L245" s="11"/>
-      <c r="M245" s="11"/>
-      <c r="N245" s="11"/>
-      <c r="O245" s="11"/>
-      <c r="P245" s="11"/>
-      <c r="Q245" s="11"/>
-      <c r="R245" s="11"/>
+      <c r="G245" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H245" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="I245" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="J245" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="K245" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="L245" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="M245" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="N245" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="O245" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="P245" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q245" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="R245" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="S245" s="10"/>
       <c r="T245" s="10"/>
     </row>
@@ -10378,18 +12293,42 @@
       <c r="F246" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="G246" s="11"/>
-      <c r="H246" s="11"/>
-      <c r="I246" s="11"/>
-      <c r="J246" s="11"/>
-      <c r="K246" s="11"/>
-      <c r="L246" s="11"/>
-      <c r="M246" s="11"/>
-      <c r="N246" s="11"/>
-      <c r="O246" s="11"/>
-      <c r="P246" s="11"/>
-      <c r="Q246" s="11"/>
-      <c r="R246" s="11"/>
+      <c r="G246" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H246" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I246" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="J246" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="K246" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="L246" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="M246" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="N246" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="O246" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="P246" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q246" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="R246" s="11" t="n">
+        <v>20</v>
+      </c>
       <c r="S246" s="10"/>
       <c r="T246" s="10"/>
     </row>
@@ -10412,18 +12351,42 @@
       <c r="F247" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="G247" s="11"/>
-      <c r="H247" s="11"/>
-      <c r="I247" s="11"/>
-      <c r="J247" s="11"/>
-      <c r="K247" s="11"/>
-      <c r="L247" s="11"/>
-      <c r="M247" s="11"/>
-      <c r="N247" s="11"/>
-      <c r="O247" s="11"/>
-      <c r="P247" s="11"/>
-      <c r="Q247" s="11"/>
-      <c r="R247" s="11"/>
+      <c r="G247" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H247" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I247" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="J247" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="K247" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="L247" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="M247" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="N247" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="O247" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="P247" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q247" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="R247" s="11" t="n">
+        <v>20</v>
+      </c>
       <c r="S247" s="10"/>
       <c r="T247" s="10"/>
     </row>
@@ -10446,18 +12409,42 @@
       <c r="F248" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="G248" s="11"/>
-      <c r="H248" s="11"/>
-      <c r="I248" s="11"/>
-      <c r="J248" s="11"/>
-      <c r="K248" s="11"/>
-      <c r="L248" s="11"/>
-      <c r="M248" s="11"/>
-      <c r="N248" s="11"/>
-      <c r="O248" s="11"/>
-      <c r="P248" s="11"/>
-      <c r="Q248" s="11"/>
-      <c r="R248" s="11"/>
+      <c r="G248" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H248" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I248" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J248" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K248" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L248" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="M248" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N248" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O248" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P248" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q248" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R248" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S248" s="10"/>
       <c r="T248" s="10"/>
     </row>
@@ -10480,18 +12467,42 @@
       <c r="F249" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="G249" s="11"/>
-      <c r="H249" s="11"/>
-      <c r="I249" s="11"/>
-      <c r="J249" s="11"/>
-      <c r="K249" s="11"/>
-      <c r="L249" s="11"/>
-      <c r="M249" s="11"/>
-      <c r="N249" s="11"/>
-      <c r="O249" s="11"/>
-      <c r="P249" s="11"/>
-      <c r="Q249" s="11"/>
-      <c r="R249" s="11"/>
+      <c r="G249" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H249" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I249" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="J249" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="K249" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="L249" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="M249" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="N249" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="O249" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="P249" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="Q249" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="R249" s="11" t="n">
+        <v>20</v>
+      </c>
       <c r="S249" s="10"/>
       <c r="T249" s="10"/>
     </row>
@@ -10514,18 +12525,42 @@
       <c r="F250" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="G250" s="11"/>
-      <c r="H250" s="11"/>
-      <c r="I250" s="11"/>
-      <c r="J250" s="11"/>
-      <c r="K250" s="11"/>
-      <c r="L250" s="11"/>
-      <c r="M250" s="11"/>
-      <c r="N250" s="11"/>
-      <c r="O250" s="11"/>
-      <c r="P250" s="11"/>
-      <c r="Q250" s="11"/>
-      <c r="R250" s="11"/>
+      <c r="G250" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H250" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="I250" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="J250" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="K250" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="L250" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="M250" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="N250" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="O250" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="P250" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q250" s="11" t="n">
+        <v>36</v>
+      </c>
+      <c r="R250" s="11" t="n">
+        <v>4</v>
+      </c>
       <c r="S250" s="10"/>
       <c r="T250" s="10"/>
     </row>
@@ -10548,18 +12583,42 @@
       <c r="F251" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="G251" s="11"/>
-      <c r="H251" s="11"/>
-      <c r="I251" s="11"/>
-      <c r="J251" s="11"/>
-      <c r="K251" s="11"/>
-      <c r="L251" s="11"/>
-      <c r="M251" s="11"/>
-      <c r="N251" s="11"/>
-      <c r="O251" s="11"/>
-      <c r="P251" s="11"/>
-      <c r="Q251" s="11"/>
-      <c r="R251" s="11"/>
+      <c r="G251" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H251" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I251" s="11" t="n">
+        <v>32</v>
+      </c>
+      <c r="J251" s="11" t="n">
+        <v>51</v>
+      </c>
+      <c r="K251" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="L251" s="11" t="n">
+        <v>77</v>
+      </c>
+      <c r="M251" s="11" t="n">
+        <v>46</v>
+      </c>
+      <c r="N251" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="O251" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="P251" s="11" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q251" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="R251" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="S251" s="10"/>
       <c r="T251" s="10"/>
     </row>
@@ -10582,18 +12641,42 @@
       <c r="F252" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="G252" s="11"/>
-      <c r="H252" s="11"/>
-      <c r="I252" s="11"/>
-      <c r="J252" s="11"/>
-      <c r="K252" s="11"/>
-      <c r="L252" s="11"/>
-      <c r="M252" s="11"/>
-      <c r="N252" s="11"/>
-      <c r="O252" s="11"/>
-      <c r="P252" s="11"/>
-      <c r="Q252" s="11"/>
-      <c r="R252" s="11"/>
+      <c r="G252" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H252" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I252" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="J252" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="K252" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="L252" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="M252" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N252" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O252" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P252" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q252" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R252" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S252" s="10"/>
       <c r="T252" s="10"/>
     </row>
@@ -10616,18 +12699,42 @@
       <c r="F253" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G253" s="11"/>
-      <c r="H253" s="11"/>
-      <c r="I253" s="11"/>
-      <c r="J253" s="11"/>
-      <c r="K253" s="11"/>
-      <c r="L253" s="11"/>
-      <c r="M253" s="11"/>
-      <c r="N253" s="11"/>
-      <c r="O253" s="11"/>
-      <c r="P253" s="11"/>
-      <c r="Q253" s="11"/>
-      <c r="R253" s="11"/>
+      <c r="G253" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H253" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="I253" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J253" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="K253" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="L253" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="M253" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="N253" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="O253" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P253" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q253" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R253" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S253" s="10"/>
       <c r="T253" s="10"/>
     </row>
@@ -10650,18 +12757,42 @@
       <c r="F254" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="G254" s="11"/>
-      <c r="H254" s="11"/>
-      <c r="I254" s="11"/>
-      <c r="J254" s="11"/>
-      <c r="K254" s="11"/>
-      <c r="L254" s="11"/>
-      <c r="M254" s="11"/>
-      <c r="N254" s="11"/>
-      <c r="O254" s="11"/>
-      <c r="P254" s="11"/>
-      <c r="Q254" s="11"/>
-      <c r="R254" s="11"/>
+      <c r="G254" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H254" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I254" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="J254" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="K254" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L254" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M254" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N254" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O254" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="P254" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="Q254" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="R254" s="11" t="n">
+        <v>60</v>
+      </c>
       <c r="S254" s="10"/>
       <c r="T254" s="10"/>
     </row>
@@ -10684,18 +12815,42 @@
       <c r="F255" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="G255" s="11"/>
-      <c r="H255" s="11"/>
-      <c r="I255" s="11"/>
-      <c r="J255" s="11"/>
-      <c r="K255" s="11"/>
-      <c r="L255" s="11"/>
-      <c r="M255" s="11"/>
-      <c r="N255" s="11"/>
-      <c r="O255" s="11"/>
-      <c r="P255" s="11"/>
-      <c r="Q255" s="11"/>
-      <c r="R255" s="11"/>
+      <c r="G255" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H255" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I255" s="11" t="n">
+        <v>52</v>
+      </c>
+      <c r="J255" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="K255" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L255" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N255" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O255" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P255" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q255" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R255" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S255" s="10"/>
       <c r="T255" s="10"/>
     </row>
@@ -10718,18 +12873,42 @@
       <c r="F256" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="G256" s="11"/>
-      <c r="H256" s="11"/>
-      <c r="I256" s="11"/>
-      <c r="J256" s="11"/>
-      <c r="K256" s="11"/>
-      <c r="L256" s="11"/>
-      <c r="M256" s="11"/>
-      <c r="N256" s="11"/>
-      <c r="O256" s="11"/>
-      <c r="P256" s="11"/>
-      <c r="Q256" s="11"/>
-      <c r="R256" s="11"/>
+      <c r="G256" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H256" s="11" t="n">
+        <v>49</v>
+      </c>
+      <c r="I256" s="11" t="n">
+        <v>72</v>
+      </c>
+      <c r="J256" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="K256" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N256" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O256" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P256" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q256" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R256" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S256" s="10"/>
       <c r="T256" s="10"/>
     </row>
@@ -10752,18 +12931,42 @@
       <c r="F257" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="G257" s="11"/>
-      <c r="H257" s="11"/>
-      <c r="I257" s="11"/>
-      <c r="J257" s="11"/>
-      <c r="K257" s="11"/>
-      <c r="L257" s="11"/>
-      <c r="M257" s="11"/>
-      <c r="N257" s="11"/>
-      <c r="O257" s="11"/>
-      <c r="P257" s="11"/>
-      <c r="Q257" s="11"/>
-      <c r="R257" s="11"/>
+      <c r="G257" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H257" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I257" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="J257" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="K257" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="L257" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="M257" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N257" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O257" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P257" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q257" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R257" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S257" s="10"/>
       <c r="T257" s="10"/>
     </row>
@@ -10786,18 +12989,42 @@
       <c r="F258" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="G258" s="11"/>
-      <c r="H258" s="11"/>
-      <c r="I258" s="11"/>
-      <c r="J258" s="11"/>
-      <c r="K258" s="11"/>
-      <c r="L258" s="11"/>
-      <c r="M258" s="11"/>
-      <c r="N258" s="11"/>
-      <c r="O258" s="11"/>
-      <c r="P258" s="11"/>
-      <c r="Q258" s="11"/>
-      <c r="R258" s="11"/>
+      <c r="G258" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H258" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="I258" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="J258" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="K258" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L258" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M258" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N258" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O258" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P258" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q258" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R258" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S258" s="10"/>
       <c r="T258" s="10"/>
     </row>
@@ -10820,18 +13047,18 @@
       <c r="F259" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="G259" s="11"/>
-      <c r="H259" s="11"/>
-      <c r="I259" s="11"/>
-      <c r="J259" s="11"/>
-      <c r="K259" s="11"/>
-      <c r="L259" s="11"/>
-      <c r="M259" s="11"/>
-      <c r="N259" s="11"/>
-      <c r="O259" s="11"/>
-      <c r="P259" s="11"/>
-      <c r="Q259" s="11"/>
-      <c r="R259" s="11"/>
+      <c r="G259" s="10"/>
+      <c r="H259" s="10"/>
+      <c r="I259" s="10"/>
+      <c r="J259" s="10"/>
+      <c r="K259" s="10"/>
+      <c r="L259" s="10"/>
+      <c r="M259" s="10"/>
+      <c r="N259" s="10"/>
+      <c r="O259" s="10"/>
+      <c r="P259" s="10"/>
+      <c r="Q259" s="10"/>
+      <c r="R259" s="10"/>
       <c r="S259" s="10"/>
       <c r="T259" s="10"/>
     </row>
@@ -10854,18 +13081,42 @@
       <c r="F260" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="G260" s="11"/>
-      <c r="H260" s="11"/>
-      <c r="I260" s="11"/>
-      <c r="J260" s="11"/>
-      <c r="K260" s="11"/>
-      <c r="L260" s="11"/>
-      <c r="M260" s="11"/>
-      <c r="N260" s="11"/>
-      <c r="O260" s="11"/>
-      <c r="P260" s="11"/>
-      <c r="Q260" s="11"/>
-      <c r="R260" s="11"/>
+      <c r="G260" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H260" s="11" t="n">
+        <v>23</v>
+      </c>
+      <c r="I260" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="J260" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="K260" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="L260" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M260" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N260" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O260" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P260" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q260" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R260" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S260" s="10"/>
       <c r="T260" s="10"/>
     </row>
@@ -10888,18 +13139,42 @@
       <c r="F261" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="G261" s="11"/>
-      <c r="H261" s="11"/>
-      <c r="I261" s="11"/>
-      <c r="J261" s="11"/>
-      <c r="K261" s="11"/>
-      <c r="L261" s="11"/>
-      <c r="M261" s="11"/>
-      <c r="N261" s="11"/>
-      <c r="O261" s="11"/>
-      <c r="P261" s="11"/>
-      <c r="Q261" s="11"/>
-      <c r="R261" s="11"/>
+      <c r="G261" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H261" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I261" s="11" t="n">
+        <v>130</v>
+      </c>
+      <c r="J261" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K261" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L261" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M261" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N261" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O261" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P261" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q261" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R261" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S261" s="10"/>
       <c r="T261" s="10"/>
     </row>
@@ -10922,18 +13197,42 @@
       <c r="F262" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="G262" s="11"/>
-      <c r="H262" s="11"/>
-      <c r="I262" s="11"/>
-      <c r="J262" s="11"/>
-      <c r="K262" s="11"/>
-      <c r="L262" s="11"/>
-      <c r="M262" s="11"/>
-      <c r="N262" s="11"/>
-      <c r="O262" s="11"/>
-      <c r="P262" s="11"/>
-      <c r="Q262" s="11"/>
-      <c r="R262" s="11"/>
+      <c r="G262" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H262" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I262" s="11" t="n">
+        <v>34</v>
+      </c>
+      <c r="J262" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K262" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L262" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M262" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N262" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O262" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P262" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q262" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R262" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S262" s="10"/>
       <c r="T262" s="10"/>
     </row>
@@ -10956,18 +13255,42 @@
       <c r="F263" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="G263" s="11"/>
-      <c r="H263" s="11"/>
-      <c r="I263" s="11"/>
-      <c r="J263" s="11"/>
-      <c r="K263" s="11"/>
-      <c r="L263" s="11"/>
-      <c r="M263" s="11"/>
-      <c r="N263" s="11"/>
-      <c r="O263" s="11"/>
-      <c r="P263" s="11"/>
-      <c r="Q263" s="11"/>
-      <c r="R263" s="11"/>
+      <c r="G263" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H263" s="11" t="n">
+        <v>29</v>
+      </c>
+      <c r="I263" s="11" t="n">
+        <v>34</v>
+      </c>
+      <c r="J263" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="K263" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L263" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M263" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N263" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O263" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P263" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q263" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R263" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S263" s="10"/>
       <c r="T263" s="10"/>
     </row>
@@ -10990,18 +13313,42 @@
       <c r="F264" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="G264" s="11"/>
-      <c r="H264" s="11"/>
-      <c r="I264" s="11"/>
-      <c r="J264" s="11"/>
-      <c r="K264" s="11"/>
-      <c r="L264" s="11"/>
-      <c r="M264" s="11"/>
-      <c r="N264" s="11"/>
-      <c r="O264" s="11"/>
-      <c r="P264" s="11"/>
-      <c r="Q264" s="11"/>
-      <c r="R264" s="11"/>
+      <c r="G264" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="H264" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="I264" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="J264" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="K264" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L264" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M264" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N264" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O264" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P264" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q264" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R264" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S264" s="10"/>
       <c r="T264" s="10"/>
     </row>
@@ -11024,18 +13371,42 @@
       <c r="F265" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="G265" s="11"/>
-      <c r="H265" s="11"/>
-      <c r="I265" s="11"/>
-      <c r="J265" s="11"/>
-      <c r="K265" s="11"/>
-      <c r="L265" s="11"/>
-      <c r="M265" s="11"/>
-      <c r="N265" s="11"/>
-      <c r="O265" s="11"/>
-      <c r="P265" s="11"/>
-      <c r="Q265" s="11"/>
-      <c r="R265" s="11"/>
+      <c r="G265" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H265" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="I265" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="J265" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="K265" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L265" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M265" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N265" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O265" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P265" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q265" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R265" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S265" s="10"/>
       <c r="T265" s="10"/>
     </row>
@@ -11058,18 +13429,42 @@
       <c r="F266" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="G266" s="11"/>
-      <c r="H266" s="11"/>
-      <c r="I266" s="11"/>
-      <c r="J266" s="11"/>
-      <c r="K266" s="11"/>
-      <c r="L266" s="11"/>
-      <c r="M266" s="11"/>
-      <c r="N266" s="11"/>
-      <c r="O266" s="11"/>
-      <c r="P266" s="11"/>
-      <c r="Q266" s="11"/>
-      <c r="R266" s="11"/>
+      <c r="G266" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H266" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I266" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J266" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K266" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L266" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M266" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N266" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O266" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P266" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q266" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R266" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S266" s="10"/>
       <c r="T266" s="10"/>
     </row>
@@ -11092,18 +13487,42 @@
       <c r="F267" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="G267" s="11"/>
-      <c r="H267" s="11"/>
-      <c r="I267" s="11"/>
-      <c r="J267" s="11"/>
-      <c r="K267" s="11"/>
-      <c r="L267" s="11"/>
-      <c r="M267" s="11"/>
-      <c r="N267" s="11"/>
-      <c r="O267" s="11"/>
-      <c r="P267" s="11"/>
-      <c r="Q267" s="11"/>
-      <c r="R267" s="11"/>
+      <c r="G267" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H267" s="11" t="n">
+        <v>47</v>
+      </c>
+      <c r="I267" s="11" t="n">
+        <v>49</v>
+      </c>
+      <c r="J267" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K267" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L267" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M267" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N267" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O267" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P267" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q267" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R267" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S267" s="10"/>
       <c r="T267" s="10"/>
     </row>
@@ -11126,18 +13545,42 @@
       <c r="F268" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="G268" s="11"/>
-      <c r="H268" s="11"/>
-      <c r="I268" s="11"/>
-      <c r="J268" s="11"/>
-      <c r="K268" s="11"/>
-      <c r="L268" s="11"/>
-      <c r="M268" s="11"/>
-      <c r="N268" s="11"/>
-      <c r="O268" s="11"/>
-      <c r="P268" s="11"/>
-      <c r="Q268" s="11"/>
-      <c r="R268" s="11"/>
+      <c r="G268" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="H268" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="I268" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="J268" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K268" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L268" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M268" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N268" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O268" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P268" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q268" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R268" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S268" s="10"/>
       <c r="T268" s="10"/>
     </row>
@@ -11160,18 +13603,18 @@
       <c r="F269" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="G269" s="11"/>
-      <c r="H269" s="11"/>
-      <c r="I269" s="11"/>
-      <c r="J269" s="11"/>
-      <c r="K269" s="11"/>
-      <c r="L269" s="11"/>
-      <c r="M269" s="11"/>
-      <c r="N269" s="11"/>
-      <c r="O269" s="11"/>
-      <c r="P269" s="11"/>
-      <c r="Q269" s="11"/>
-      <c r="R269" s="11"/>
+      <c r="G269" s="10"/>
+      <c r="H269" s="10"/>
+      <c r="I269" s="10"/>
+      <c r="J269" s="10"/>
+      <c r="K269" s="10"/>
+      <c r="L269" s="10"/>
+      <c r="M269" s="10"/>
+      <c r="N269" s="10"/>
+      <c r="O269" s="10"/>
+      <c r="P269" s="10"/>
+      <c r="Q269" s="10"/>
+      <c r="R269" s="10"/>
       <c r="S269" s="10"/>
       <c r="T269" s="10"/>
     </row>
@@ -11194,18 +13637,42 @@
       <c r="F270" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="G270" s="11"/>
-      <c r="H270" s="11"/>
-      <c r="I270" s="11"/>
-      <c r="J270" s="11"/>
-      <c r="K270" s="11"/>
-      <c r="L270" s="11"/>
-      <c r="M270" s="11"/>
-      <c r="N270" s="11"/>
-      <c r="O270" s="11"/>
-      <c r="P270" s="11"/>
-      <c r="Q270" s="11"/>
-      <c r="R270" s="11"/>
+      <c r="G270" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H270" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="I270" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="J270" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="K270" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="L270" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M270" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N270" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O270" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P270" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q270" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R270" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S270" s="10"/>
       <c r="T270" s="10"/>
     </row>
@@ -11228,18 +13695,42 @@
       <c r="F271" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="G271" s="11"/>
-      <c r="H271" s="11"/>
-      <c r="I271" s="11"/>
-      <c r="J271" s="11"/>
-      <c r="K271" s="11"/>
-      <c r="L271" s="11"/>
-      <c r="M271" s="11"/>
-      <c r="N271" s="11"/>
-      <c r="O271" s="11"/>
-      <c r="P271" s="11"/>
-      <c r="Q271" s="11"/>
-      <c r="R271" s="11"/>
+      <c r="G271" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H271" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="I271" s="11" t="n">
+        <v>16</v>
+      </c>
+      <c r="J271" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K271" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L271" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M271" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N271" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O271" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P271" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q271" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R271" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S271" s="10"/>
       <c r="T271" s="10"/>
     </row>
@@ -11262,18 +13753,42 @@
       <c r="F272" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="G272" s="11"/>
-      <c r="H272" s="11"/>
-      <c r="I272" s="11"/>
-      <c r="J272" s="11"/>
-      <c r="K272" s="11"/>
-      <c r="L272" s="11"/>
-      <c r="M272" s="11"/>
-      <c r="N272" s="11"/>
-      <c r="O272" s="11"/>
-      <c r="P272" s="11"/>
-      <c r="Q272" s="11"/>
-      <c r="R272" s="11"/>
+      <c r="G272" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H272" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="I272" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="J272" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K272" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L272" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M272" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N272" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O272" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P272" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q272" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R272" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S272" s="10"/>
       <c r="T272" s="10"/>
     </row>
@@ -11296,18 +13811,42 @@
       <c r="F273" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="G273" s="11"/>
-      <c r="H273" s="11"/>
-      <c r="I273" s="11"/>
-      <c r="J273" s="11"/>
-      <c r="K273" s="11"/>
-      <c r="L273" s="11"/>
-      <c r="M273" s="11"/>
-      <c r="N273" s="11"/>
-      <c r="O273" s="11"/>
-      <c r="P273" s="11"/>
-      <c r="Q273" s="11"/>
-      <c r="R273" s="11"/>
+      <c r="G273" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H273" s="11" t="n">
+        <v>51</v>
+      </c>
+      <c r="I273" s="11" t="n">
+        <v>32</v>
+      </c>
+      <c r="J273" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="K273" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="L273" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M273" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N273" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O273" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P273" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q273" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R273" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S273" s="10"/>
       <c r="T273" s="10"/>
     </row>
@@ -11330,18 +13869,42 @@
       <c r="F274" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="G274" s="11"/>
-      <c r="H274" s="11"/>
-      <c r="I274" s="11"/>
-      <c r="J274" s="11"/>
-      <c r="K274" s="11"/>
-      <c r="L274" s="11"/>
-      <c r="M274" s="11"/>
-      <c r="N274" s="11"/>
-      <c r="O274" s="11"/>
-      <c r="P274" s="11"/>
-      <c r="Q274" s="11"/>
-      <c r="R274" s="11"/>
+      <c r="G274" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H274" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="I274" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="J274" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="K274" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L274" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M274" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N274" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O274" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P274" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q274" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R274" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S274" s="10"/>
       <c r="T274" s="10"/>
     </row>
@@ -11364,18 +13927,42 @@
       <c r="F275" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="G275" s="11"/>
-      <c r="H275" s="11"/>
-      <c r="I275" s="11"/>
-      <c r="J275" s="11"/>
-      <c r="K275" s="11"/>
-      <c r="L275" s="11"/>
-      <c r="M275" s="11"/>
-      <c r="N275" s="11"/>
-      <c r="O275" s="11"/>
-      <c r="P275" s="11"/>
-      <c r="Q275" s="11"/>
-      <c r="R275" s="11"/>
+      <c r="G275" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H275" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I275" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="J275" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="K275" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="L275" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M275" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N275" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O275" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P275" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q275" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R275" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S275" s="10"/>
       <c r="T275" s="10"/>
     </row>
@@ -11398,18 +13985,42 @@
       <c r="F276" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="G276" s="11"/>
-      <c r="H276" s="11"/>
-      <c r="I276" s="11"/>
-      <c r="J276" s="11"/>
-      <c r="K276" s="11"/>
-      <c r="L276" s="11"/>
-      <c r="M276" s="11"/>
-      <c r="N276" s="11"/>
-      <c r="O276" s="11"/>
-      <c r="P276" s="11"/>
-      <c r="Q276" s="11"/>
-      <c r="R276" s="11"/>
+      <c r="G276" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H276" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="I276" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="J276" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K276" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L276" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M276" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N276" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O276" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P276" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q276" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R276" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S276" s="10"/>
       <c r="T276" s="10"/>
     </row>
@@ -11432,18 +14043,42 @@
       <c r="F277" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="G277" s="11"/>
-      <c r="H277" s="11"/>
-      <c r="I277" s="11"/>
-      <c r="J277" s="11"/>
-      <c r="K277" s="11"/>
-      <c r="L277" s="11"/>
-      <c r="M277" s="11"/>
-      <c r="N277" s="11"/>
-      <c r="O277" s="11"/>
-      <c r="P277" s="11"/>
-      <c r="Q277" s="11"/>
-      <c r="R277" s="11"/>
+      <c r="G277" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H277" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I277" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="J277" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="K277" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L277" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M277" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N277" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O277" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P277" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q277" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R277" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S277" s="10"/>
       <c r="T277" s="10"/>
     </row>
@@ -11466,18 +14101,42 @@
       <c r="F278" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="G278" s="11"/>
-      <c r="H278" s="11"/>
-      <c r="I278" s="11"/>
-      <c r="J278" s="11"/>
-      <c r="K278" s="11"/>
-      <c r="L278" s="11"/>
-      <c r="M278" s="11"/>
-      <c r="N278" s="11"/>
-      <c r="O278" s="11"/>
-      <c r="P278" s="11"/>
-      <c r="Q278" s="11"/>
-      <c r="R278" s="11"/>
+      <c r="G278" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H278" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="I278" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="J278" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="K278" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L278" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M278" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N278" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O278" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P278" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q278" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R278" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S278" s="10"/>
       <c r="T278" s="10"/>
     </row>
@@ -11500,18 +14159,42 @@
       <c r="F279" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="G279" s="11"/>
-      <c r="H279" s="11"/>
-      <c r="I279" s="11"/>
-      <c r="J279" s="11"/>
-      <c r="K279" s="11"/>
-      <c r="L279" s="11"/>
-      <c r="M279" s="11"/>
-      <c r="N279" s="11"/>
-      <c r="O279" s="11"/>
-      <c r="P279" s="11"/>
-      <c r="Q279" s="11"/>
-      <c r="R279" s="11"/>
+      <c r="G279" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H279" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="I279" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="J279" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="K279" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L279" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M279" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N279" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O279" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P279" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q279" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R279" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S279" s="10"/>
       <c r="T279" s="10"/>
     </row>
@@ -11534,18 +14217,42 @@
       <c r="F280" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="G280" s="11"/>
-      <c r="H280" s="11"/>
-      <c r="I280" s="11"/>
-      <c r="J280" s="11"/>
-      <c r="K280" s="11"/>
-      <c r="L280" s="11"/>
-      <c r="M280" s="11"/>
-      <c r="N280" s="11"/>
-      <c r="O280" s="11"/>
-      <c r="P280" s="11"/>
-      <c r="Q280" s="11"/>
-      <c r="R280" s="11"/>
+      <c r="G280" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H280" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="I280" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="J280" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="K280" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="L280" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M280" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N280" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O280" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P280" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q280" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R280" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S280" s="10"/>
       <c r="T280" s="10"/>
     </row>
@@ -11568,18 +14275,42 @@
       <c r="F281" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="G281" s="11"/>
-      <c r="H281" s="11"/>
-      <c r="I281" s="11"/>
-      <c r="J281" s="11"/>
-      <c r="K281" s="11"/>
-      <c r="L281" s="11"/>
-      <c r="M281" s="11"/>
-      <c r="N281" s="11"/>
-      <c r="O281" s="11"/>
-      <c r="P281" s="11"/>
-      <c r="Q281" s="11"/>
-      <c r="R281" s="11"/>
+      <c r="G281" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H281" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I281" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="J281" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="K281" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L281" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M281" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N281" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O281" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P281" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q281" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R281" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S281" s="10"/>
       <c r="T281" s="10"/>
     </row>
@@ -11602,18 +14333,42 @@
       <c r="F282" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="G282" s="11"/>
-      <c r="H282" s="11"/>
-      <c r="I282" s="11"/>
-      <c r="J282" s="11"/>
-      <c r="K282" s="11"/>
-      <c r="L282" s="11"/>
-      <c r="M282" s="11"/>
-      <c r="N282" s="11"/>
-      <c r="O282" s="11"/>
-      <c r="P282" s="11"/>
-      <c r="Q282" s="11"/>
-      <c r="R282" s="11"/>
+      <c r="G282" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H282" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="I282" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J282" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="K282" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L282" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M282" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N282" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O282" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P282" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q282" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R282" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S282" s="10"/>
       <c r="T282" s="10"/>
     </row>
@@ -11636,18 +14391,42 @@
       <c r="F283" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="G283" s="11"/>
-      <c r="H283" s="11"/>
-      <c r="I283" s="11"/>
-      <c r="J283" s="11"/>
-      <c r="K283" s="11"/>
-      <c r="L283" s="11"/>
-      <c r="M283" s="11"/>
-      <c r="N283" s="11"/>
-      <c r="O283" s="11"/>
-      <c r="P283" s="11"/>
-      <c r="Q283" s="11"/>
-      <c r="R283" s="11"/>
+      <c r="G283" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H283" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="I283" s="11" t="n">
+        <v>58</v>
+      </c>
+      <c r="J283" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="K283" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L283" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M283" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N283" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O283" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P283" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q283" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R283" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S283" s="10"/>
       <c r="T283" s="10"/>
     </row>
@@ -11670,18 +14449,42 @@
       <c r="F284" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="G284" s="11"/>
-      <c r="H284" s="11"/>
-      <c r="I284" s="11"/>
-      <c r="J284" s="11"/>
-      <c r="K284" s="11"/>
-      <c r="L284" s="11"/>
-      <c r="M284" s="11"/>
-      <c r="N284" s="11"/>
-      <c r="O284" s="11"/>
-      <c r="P284" s="11"/>
-      <c r="Q284" s="11"/>
-      <c r="R284" s="11"/>
+      <c r="G284" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H284" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="I284" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="J284" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="K284" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N284" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O284" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P284" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q284" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R284" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S284" s="10"/>
       <c r="T284" s="10"/>
     </row>
@@ -11704,18 +14507,42 @@
       <c r="F285" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="G285" s="11"/>
-      <c r="H285" s="11"/>
-      <c r="I285" s="11"/>
-      <c r="J285" s="11"/>
-      <c r="K285" s="11"/>
-      <c r="L285" s="11"/>
-      <c r="M285" s="11"/>
-      <c r="N285" s="11"/>
-      <c r="O285" s="11"/>
-      <c r="P285" s="11"/>
-      <c r="Q285" s="11"/>
-      <c r="R285" s="11"/>
+      <c r="G285" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H285" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="I285" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="J285" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K285" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L285" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M285" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N285" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O285" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P285" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q285" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R285" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S285" s="10"/>
       <c r="T285" s="10"/>
     </row>
@@ -11738,18 +14565,42 @@
       <c r="F286" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="G286" s="11"/>
-      <c r="H286" s="11"/>
-      <c r="I286" s="11"/>
-      <c r="J286" s="11"/>
-      <c r="K286" s="11"/>
-      <c r="L286" s="11"/>
-      <c r="M286" s="11"/>
-      <c r="N286" s="11"/>
-      <c r="O286" s="11"/>
-      <c r="P286" s="11"/>
-      <c r="Q286" s="11"/>
-      <c r="R286" s="11"/>
+      <c r="G286" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H286" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I286" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="J286" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="K286" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L286" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M286" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N286" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O286" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P286" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q286" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R286" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S286" s="10"/>
       <c r="T286" s="10"/>
     </row>
@@ -11772,18 +14623,42 @@
       <c r="F287" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="G287" s="11"/>
-      <c r="H287" s="11"/>
-      <c r="I287" s="11"/>
-      <c r="J287" s="11"/>
-      <c r="K287" s="11"/>
-      <c r="L287" s="11"/>
-      <c r="M287" s="11"/>
-      <c r="N287" s="11"/>
-      <c r="O287" s="11"/>
-      <c r="P287" s="11"/>
-      <c r="Q287" s="11"/>
-      <c r="R287" s="11"/>
+      <c r="G287" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H287" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="I287" s="11" t="n">
+        <v>36</v>
+      </c>
+      <c r="J287" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="K287" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L287" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M287" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N287" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O287" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P287" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q287" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R287" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S287" s="10"/>
       <c r="T287" s="10"/>
     </row>
@@ -11806,18 +14681,42 @@
       <c r="F288" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="G288" s="11"/>
-      <c r="H288" s="11"/>
-      <c r="I288" s="11"/>
-      <c r="J288" s="11"/>
-      <c r="K288" s="11"/>
-      <c r="L288" s="11"/>
-      <c r="M288" s="11"/>
-      <c r="N288" s="11"/>
-      <c r="O288" s="11"/>
-      <c r="P288" s="11"/>
-      <c r="Q288" s="11"/>
-      <c r="R288" s="11"/>
+      <c r="G288" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H288" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="I288" s="11" t="n">
+        <v>58</v>
+      </c>
+      <c r="J288" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="K288" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="L288" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M288" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N288" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O288" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P288" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q288" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R288" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S288" s="10"/>
       <c r="T288" s="10"/>
     </row>
@@ -11840,18 +14739,42 @@
       <c r="F289" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="G289" s="11"/>
-      <c r="H289" s="11"/>
-      <c r="I289" s="11"/>
-      <c r="J289" s="11"/>
-      <c r="K289" s="11"/>
-      <c r="L289" s="11"/>
-      <c r="M289" s="11"/>
-      <c r="N289" s="11"/>
-      <c r="O289" s="11"/>
-      <c r="P289" s="11"/>
-      <c r="Q289" s="11"/>
-      <c r="R289" s="11"/>
+      <c r="G289" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H289" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="I289" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="J289" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K289" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L289" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M289" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N289" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O289" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P289" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q289" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R289" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S289" s="10"/>
       <c r="T289" s="10"/>
     </row>
@@ -11874,18 +14797,42 @@
       <c r="F290" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="G290" s="11"/>
-      <c r="H290" s="11"/>
-      <c r="I290" s="11"/>
-      <c r="J290" s="11"/>
-      <c r="K290" s="11"/>
-      <c r="L290" s="11"/>
-      <c r="M290" s="11"/>
-      <c r="N290" s="11"/>
-      <c r="O290" s="11"/>
-      <c r="P290" s="11"/>
-      <c r="Q290" s="11"/>
-      <c r="R290" s="11"/>
+      <c r="G290" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H290" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I290" s="11" t="n">
+        <v>24</v>
+      </c>
+      <c r="J290" s="11" t="n">
+        <v>24</v>
+      </c>
+      <c r="K290" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L290" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M290" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N290" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O290" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P290" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q290" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R290" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S290" s="10"/>
       <c r="T290" s="10"/>
     </row>
@@ -11908,18 +14855,42 @@
       <c r="F291" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="G291" s="11"/>
-      <c r="H291" s="11"/>
-      <c r="I291" s="11"/>
-      <c r="J291" s="11"/>
-      <c r="K291" s="11"/>
-      <c r="L291" s="11"/>
-      <c r="M291" s="11"/>
-      <c r="N291" s="11"/>
-      <c r="O291" s="11"/>
-      <c r="P291" s="11"/>
-      <c r="Q291" s="11"/>
-      <c r="R291" s="11"/>
+      <c r="G291" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H291" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="I291" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="J291" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="K291" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L291" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N291" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O291" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P291" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q291" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R291" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S291" s="10"/>
       <c r="T291" s="10"/>
     </row>
@@ -11942,18 +14913,42 @@
       <c r="F292" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="G292" s="11"/>
-      <c r="H292" s="11"/>
-      <c r="I292" s="11"/>
-      <c r="J292" s="11"/>
-      <c r="K292" s="11"/>
-      <c r="L292" s="11"/>
-      <c r="M292" s="11"/>
-      <c r="N292" s="11"/>
-      <c r="O292" s="11"/>
-      <c r="P292" s="11"/>
-      <c r="Q292" s="11"/>
-      <c r="R292" s="11"/>
+      <c r="G292" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H292" s="11" t="n">
+        <v>54</v>
+      </c>
+      <c r="I292" s="11" t="n">
+        <v>97</v>
+      </c>
+      <c r="J292" s="11" t="n">
+        <v>14</v>
+      </c>
+      <c r="K292" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="L292" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M292" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N292" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O292" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P292" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q292" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R292" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S292" s="10"/>
       <c r="T292" s="10"/>
     </row>
@@ -11976,18 +14971,42 @@
       <c r="F293" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="G293" s="11"/>
-      <c r="H293" s="11"/>
-      <c r="I293" s="11"/>
-      <c r="J293" s="11"/>
-      <c r="K293" s="11"/>
-      <c r="L293" s="11"/>
-      <c r="M293" s="11"/>
-      <c r="N293" s="11"/>
-      <c r="O293" s="11"/>
-      <c r="P293" s="11"/>
-      <c r="Q293" s="11"/>
-      <c r="R293" s="11"/>
+      <c r="G293" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H293" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="I293" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="J293" s="11" t="n">
+        <v>46</v>
+      </c>
+      <c r="K293" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="L293" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N293" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O293" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P293" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q293" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R293" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S293" s="10"/>
       <c r="T293" s="10"/>
     </row>
@@ -12010,18 +15029,40 @@
       <c r="F294" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="G294" s="11"/>
-      <c r="H294" s="11"/>
-      <c r="I294" s="11"/>
-      <c r="J294" s="11"/>
-      <c r="K294" s="11"/>
+      <c r="G294" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H294" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I294" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="J294" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="K294" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="L294" s="11"/>
-      <c r="M294" s="11"/>
-      <c r="N294" s="11"/>
-      <c r="O294" s="11"/>
-      <c r="P294" s="11"/>
-      <c r="Q294" s="11"/>
-      <c r="R294" s="11"/>
+      <c r="M294" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N294" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O294" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P294" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q294" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R294" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S294" s="10"/>
       <c r="T294" s="10"/>
     </row>
@@ -12044,18 +15085,42 @@
       <c r="F295" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="G295" s="11"/>
-      <c r="H295" s="11"/>
-      <c r="I295" s="11"/>
-      <c r="J295" s="11"/>
-      <c r="K295" s="11"/>
-      <c r="L295" s="11"/>
-      <c r="M295" s="11"/>
-      <c r="N295" s="11"/>
-      <c r="O295" s="11"/>
-      <c r="P295" s="11"/>
-      <c r="Q295" s="11"/>
-      <c r="R295" s="11"/>
+      <c r="G295" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H295" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="I295" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="J295" s="11" t="n">
+        <v>45</v>
+      </c>
+      <c r="K295" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="L295" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M295" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N295" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O295" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P295" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q295" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R295" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S295" s="10"/>
       <c r="T295" s="10"/>
     </row>
@@ -12078,18 +15143,42 @@
       <c r="F296" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="G296" s="11"/>
-      <c r="H296" s="11"/>
-      <c r="I296" s="11"/>
-      <c r="J296" s="11"/>
-      <c r="K296" s="11"/>
-      <c r="L296" s="11"/>
-      <c r="M296" s="11"/>
-      <c r="N296" s="11"/>
-      <c r="O296" s="11"/>
-      <c r="P296" s="11"/>
-      <c r="Q296" s="11"/>
-      <c r="R296" s="11"/>
+      <c r="G296" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H296" s="11" t="n">
+        <v>90</v>
+      </c>
+      <c r="I296" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="J296" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="K296" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L296" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M296" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N296" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O296" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P296" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q296" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R296" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S296" s="10"/>
       <c r="T296" s="10"/>
     </row>
@@ -12112,18 +15201,18 @@
       <c r="F297" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="G297" s="11"/>
-      <c r="H297" s="11"/>
-      <c r="I297" s="11"/>
-      <c r="J297" s="11"/>
-      <c r="K297" s="11"/>
-      <c r="L297" s="11"/>
-      <c r="M297" s="11"/>
-      <c r="N297" s="11"/>
-      <c r="O297" s="11"/>
-      <c r="P297" s="11"/>
-      <c r="Q297" s="11"/>
-      <c r="R297" s="11"/>
+      <c r="G297" s="10"/>
+      <c r="H297" s="10"/>
+      <c r="I297" s="10"/>
+      <c r="J297" s="10"/>
+      <c r="K297" s="10"/>
+      <c r="L297" s="10"/>
+      <c r="M297" s="10"/>
+      <c r="N297" s="10"/>
+      <c r="O297" s="10"/>
+      <c r="P297" s="10"/>
+      <c r="Q297" s="10"/>
+      <c r="R297" s="10"/>
       <c r="S297" s="10"/>
       <c r="T297" s="10"/>
     </row>
@@ -12146,18 +15235,42 @@
       <c r="F298" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="G298" s="11"/>
-      <c r="H298" s="11"/>
-      <c r="I298" s="11"/>
-      <c r="J298" s="11"/>
-      <c r="K298" s="11"/>
-      <c r="L298" s="11"/>
-      <c r="M298" s="11"/>
-      <c r="N298" s="11"/>
-      <c r="O298" s="11"/>
-      <c r="P298" s="11"/>
-      <c r="Q298" s="11"/>
-      <c r="R298" s="11"/>
+      <c r="G298" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H298" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="I298" s="11" t="n">
+        <v>58</v>
+      </c>
+      <c r="J298" s="11" t="n">
+        <v>34</v>
+      </c>
+      <c r="K298" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="L298" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N298" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O298" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P298" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q298" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R298" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S298" s="10"/>
       <c r="T298" s="10"/>
     </row>
@@ -12180,18 +15293,42 @@
       <c r="F299" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="G299" s="11"/>
-      <c r="H299" s="11"/>
-      <c r="I299" s="11"/>
-      <c r="J299" s="11"/>
-      <c r="K299" s="11"/>
-      <c r="L299" s="11"/>
-      <c r="M299" s="11"/>
-      <c r="N299" s="11"/>
-      <c r="O299" s="11"/>
-      <c r="P299" s="11"/>
-      <c r="Q299" s="11"/>
-      <c r="R299" s="11"/>
+      <c r="G299" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H299" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I299" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="J299" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="K299" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="L299" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M299" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N299" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O299" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P299" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q299" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R299" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S299" s="10"/>
       <c r="T299" s="10"/>
     </row>
@@ -12214,18 +15351,42 @@
       <c r="F300" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="G300" s="11"/>
-      <c r="H300" s="11"/>
-      <c r="I300" s="11"/>
-      <c r="J300" s="11"/>
-      <c r="K300" s="11"/>
-      <c r="L300" s="11"/>
-      <c r="M300" s="11"/>
-      <c r="N300" s="11"/>
-      <c r="O300" s="11"/>
-      <c r="P300" s="11"/>
-      <c r="Q300" s="11"/>
-      <c r="R300" s="11"/>
+      <c r="G300" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H300" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="I300" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="J300" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="K300" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="L300" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="M300" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N300" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O300" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P300" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q300" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R300" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S300" s="10"/>
       <c r="T300" s="10"/>
     </row>
@@ -12248,18 +15409,42 @@
       <c r="F301" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="G301" s="11"/>
-      <c r="H301" s="11"/>
-      <c r="I301" s="11"/>
-      <c r="J301" s="11"/>
-      <c r="K301" s="11"/>
-      <c r="L301" s="11"/>
-      <c r="M301" s="11"/>
-      <c r="N301" s="11"/>
-      <c r="O301" s="11"/>
-      <c r="P301" s="11"/>
-      <c r="Q301" s="11"/>
-      <c r="R301" s="11"/>
+      <c r="G301" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="H301" s="11" t="n">
+        <v>65</v>
+      </c>
+      <c r="I301" s="11" t="n">
+        <v>65</v>
+      </c>
+      <c r="J301" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K301" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="L301" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M301" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N301" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O301" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P301" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q301" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R301" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S301" s="10"/>
       <c r="T301" s="10"/>
     </row>
@@ -12282,18 +15467,42 @@
       <c r="F302" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="G302" s="11"/>
-      <c r="H302" s="11"/>
-      <c r="I302" s="11"/>
-      <c r="J302" s="11"/>
-      <c r="K302" s="11"/>
-      <c r="L302" s="11"/>
-      <c r="M302" s="11"/>
-      <c r="N302" s="11"/>
-      <c r="O302" s="11"/>
-      <c r="P302" s="11"/>
-      <c r="Q302" s="11"/>
-      <c r="R302" s="11"/>
+      <c r="G302" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="H302" s="11" t="n">
+        <v>36</v>
+      </c>
+      <c r="I302" s="11" t="n">
+        <v>53</v>
+      </c>
+      <c r="J302" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="K302" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="L302" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M302" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N302" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O302" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P302" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q302" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R302" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S302" s="10"/>
       <c r="T302" s="10"/>
     </row>
@@ -12316,18 +15525,42 @@
       <c r="F303" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="G303" s="11"/>
-      <c r="H303" s="11"/>
-      <c r="I303" s="11"/>
-      <c r="J303" s="11"/>
-      <c r="K303" s="11"/>
-      <c r="L303" s="11"/>
-      <c r="M303" s="11"/>
-      <c r="N303" s="11"/>
-      <c r="O303" s="11"/>
-      <c r="P303" s="11"/>
-      <c r="Q303" s="11"/>
-      <c r="R303" s="11"/>
+      <c r="G303" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="H303" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="I303" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="J303" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="K303" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L303" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N303" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O303" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P303" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q303" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R303" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S303" s="10"/>
       <c r="T303" s="10"/>
     </row>
@@ -12350,18 +15583,42 @@
       <c r="F304" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="G304" s="11"/>
-      <c r="H304" s="11"/>
-      <c r="I304" s="11"/>
-      <c r="J304" s="11"/>
-      <c r="K304" s="11"/>
-      <c r="L304" s="11"/>
-      <c r="M304" s="11"/>
-      <c r="N304" s="11"/>
-      <c r="O304" s="11"/>
-      <c r="P304" s="11"/>
-      <c r="Q304" s="11"/>
-      <c r="R304" s="11"/>
+      <c r="G304" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H304" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="I304" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="J304" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="K304" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L304" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M304" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N304" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O304" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P304" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q304" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R304" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S304" s="10"/>
       <c r="T304" s="10"/>
     </row>
@@ -12384,18 +15641,42 @@
       <c r="F305" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="G305" s="11"/>
-      <c r="H305" s="11"/>
-      <c r="I305" s="11"/>
-      <c r="J305" s="11"/>
-      <c r="K305" s="11"/>
-      <c r="L305" s="11"/>
-      <c r="M305" s="11"/>
-      <c r="N305" s="11"/>
-      <c r="O305" s="11"/>
-      <c r="P305" s="11"/>
-      <c r="Q305" s="11"/>
-      <c r="R305" s="11"/>
+      <c r="G305" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H305" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I305" s="11" t="n">
+        <v>60</v>
+      </c>
+      <c r="J305" s="11" t="n">
+        <v>80</v>
+      </c>
+      <c r="K305" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="L305" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="M305" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N305" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O305" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P305" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q305" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R305" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S305" s="10"/>
       <c r="T305" s="10"/>
     </row>
@@ -12418,18 +15699,18 @@
       <c r="F306" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="G306" s="11"/>
-      <c r="H306" s="11"/>
-      <c r="I306" s="11"/>
-      <c r="J306" s="11"/>
-      <c r="K306" s="11"/>
-      <c r="L306" s="11"/>
-      <c r="M306" s="11"/>
-      <c r="N306" s="11"/>
-      <c r="O306" s="11"/>
-      <c r="P306" s="11"/>
-      <c r="Q306" s="11"/>
-      <c r="R306" s="11"/>
+      <c r="G306" s="10"/>
+      <c r="H306" s="10"/>
+      <c r="I306" s="10"/>
+      <c r="J306" s="10"/>
+      <c r="K306" s="10"/>
+      <c r="L306" s="10"/>
+      <c r="M306" s="10"/>
+      <c r="N306" s="10"/>
+      <c r="O306" s="10"/>
+      <c r="P306" s="10"/>
+      <c r="Q306" s="10"/>
+      <c r="R306" s="10"/>
       <c r="S306" s="10"/>
       <c r="T306" s="10"/>
     </row>
@@ -12452,18 +15733,42 @@
       <c r="F307" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="G307" s="11"/>
-      <c r="H307" s="11"/>
-      <c r="I307" s="11"/>
-      <c r="J307" s="11"/>
-      <c r="K307" s="11"/>
-      <c r="L307" s="11"/>
-      <c r="M307" s="11"/>
-      <c r="N307" s="11"/>
-      <c r="O307" s="11"/>
-      <c r="P307" s="11"/>
-      <c r="Q307" s="11"/>
-      <c r="R307" s="11"/>
+      <c r="G307" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H307" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="I307" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="J307" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="K307" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L307" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M307" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N307" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O307" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P307" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q307" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R307" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S307" s="10"/>
       <c r="T307" s="10"/>
     </row>
@@ -12486,18 +15791,42 @@
       <c r="F308" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="G308" s="11"/>
-      <c r="H308" s="11"/>
-      <c r="I308" s="11"/>
-      <c r="J308" s="11"/>
-      <c r="K308" s="11"/>
-      <c r="L308" s="11"/>
-      <c r="M308" s="11"/>
-      <c r="N308" s="11"/>
-      <c r="O308" s="11"/>
-      <c r="P308" s="11"/>
-      <c r="Q308" s="11"/>
-      <c r="R308" s="11"/>
+      <c r="G308" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H308" s="11" t="n">
+        <v>36</v>
+      </c>
+      <c r="I308" s="11" t="n">
+        <v>54</v>
+      </c>
+      <c r="J308" s="11" t="n">
+        <v>8</v>
+      </c>
+      <c r="K308" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L308" s="11" t="n">
+        <v>12</v>
+      </c>
+      <c r="M308" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N308" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O308" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P308" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q308" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R308" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S308" s="10"/>
       <c r="T308" s="10"/>
     </row>
@@ -12520,18 +15849,18 @@
       <c r="F309" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="G309" s="11"/>
-      <c r="H309" s="11"/>
-      <c r="I309" s="11"/>
-      <c r="J309" s="11"/>
-      <c r="K309" s="11"/>
-      <c r="L309" s="11"/>
-      <c r="M309" s="11"/>
-      <c r="N309" s="11"/>
-      <c r="O309" s="11"/>
-      <c r="P309" s="11"/>
-      <c r="Q309" s="11"/>
-      <c r="R309" s="11"/>
+      <c r="G309" s="10"/>
+      <c r="H309" s="10"/>
+      <c r="I309" s="10"/>
+      <c r="J309" s="10"/>
+      <c r="K309" s="10"/>
+      <c r="L309" s="10"/>
+      <c r="M309" s="10"/>
+      <c r="N309" s="10"/>
+      <c r="O309" s="10"/>
+      <c r="P309" s="10"/>
+      <c r="Q309" s="10"/>
+      <c r="R309" s="10"/>
       <c r="S309" s="10"/>
       <c r="T309" s="10"/>
     </row>
@@ -12554,18 +15883,42 @@
       <c r="F310" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="G310" s="11"/>
-      <c r="H310" s="11"/>
-      <c r="I310" s="11"/>
-      <c r="J310" s="11"/>
-      <c r="K310" s="11"/>
-      <c r="L310" s="11"/>
-      <c r="M310" s="11"/>
-      <c r="N310" s="11"/>
-      <c r="O310" s="11"/>
-      <c r="P310" s="11"/>
-      <c r="Q310" s="11"/>
-      <c r="R310" s="11"/>
+      <c r="G310" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H310" s="11" t="n">
+        <v>75</v>
+      </c>
+      <c r="I310" s="11" t="n">
+        <v>65</v>
+      </c>
+      <c r="J310" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="K310" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="L310" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M310" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N310" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O310" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P310" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q310" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R310" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S310" s="10"/>
       <c r="T310" s="10"/>
     </row>
@@ -12588,18 +15941,42 @@
       <c r="F311" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="G311" s="11"/>
-      <c r="H311" s="11"/>
-      <c r="I311" s="11"/>
-      <c r="J311" s="11"/>
-      <c r="K311" s="11"/>
-      <c r="L311" s="11"/>
-      <c r="M311" s="11"/>
-      <c r="N311" s="11"/>
-      <c r="O311" s="11"/>
-      <c r="P311" s="11"/>
-      <c r="Q311" s="11"/>
-      <c r="R311" s="11"/>
+      <c r="G311" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H311" s="11" t="n">
+        <v>150</v>
+      </c>
+      <c r="I311" s="11" t="n">
+        <v>130</v>
+      </c>
+      <c r="J311" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="K311" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L311" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M311" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N311" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O311" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P311" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q311" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R311" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S311" s="10"/>
       <c r="T311" s="10"/>
     </row>
@@ -12622,18 +15999,42 @@
       <c r="F312" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="G312" s="11"/>
-      <c r="H312" s="11"/>
-      <c r="I312" s="11"/>
-      <c r="J312" s="11"/>
-      <c r="K312" s="11"/>
-      <c r="L312" s="11"/>
-      <c r="M312" s="11"/>
-      <c r="N312" s="11"/>
-      <c r="O312" s="11"/>
-      <c r="P312" s="11"/>
-      <c r="Q312" s="11"/>
-      <c r="R312" s="11"/>
+      <c r="G312" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H312" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="I312" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="J312" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="K312" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L312" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M312" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N312" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O312" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P312" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q312" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R312" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S312" s="10"/>
       <c r="T312" s="10"/>
     </row>
@@ -12656,18 +16057,42 @@
       <c r="F313" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="G313" s="11"/>
-      <c r="H313" s="11"/>
-      <c r="I313" s="11"/>
-      <c r="J313" s="11"/>
-      <c r="K313" s="11"/>
-      <c r="L313" s="11"/>
-      <c r="M313" s="11"/>
-      <c r="N313" s="11"/>
-      <c r="O313" s="11"/>
-      <c r="P313" s="11"/>
-      <c r="Q313" s="11"/>
-      <c r="R313" s="11"/>
+      <c r="G313" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H313" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="I313" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="J313" s="11" t="n">
+        <v>35</v>
+      </c>
+      <c r="K313" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L313" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="M313" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N313" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O313" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P313" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q313" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R313" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S313" s="10"/>
       <c r="T313" s="10"/>
     </row>
@@ -12690,18 +16115,42 @@
       <c r="F314" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="G314" s="11"/>
-      <c r="H314" s="11"/>
-      <c r="I314" s="11"/>
-      <c r="J314" s="11"/>
-      <c r="K314" s="11"/>
-      <c r="L314" s="11"/>
-      <c r="M314" s="11"/>
-      <c r="N314" s="11"/>
-      <c r="O314" s="11"/>
-      <c r="P314" s="11"/>
-      <c r="Q314" s="11"/>
-      <c r="R314" s="11"/>
+      <c r="G314" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="H314" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="I314" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="J314" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="K314" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L314" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M314" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N314" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O314" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P314" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q314" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R314" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S314" s="10"/>
       <c r="T314" s="10"/>
     </row>
@@ -12724,18 +16173,42 @@
       <c r="F315" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="G315" s="11"/>
-      <c r="H315" s="11"/>
-      <c r="I315" s="11"/>
-      <c r="J315" s="11"/>
-      <c r="K315" s="11"/>
-      <c r="L315" s="11"/>
-      <c r="M315" s="11"/>
-      <c r="N315" s="11"/>
-      <c r="O315" s="11"/>
-      <c r="P315" s="11"/>
-      <c r="Q315" s="11"/>
-      <c r="R315" s="11"/>
+      <c r="G315" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H315" s="11" t="n">
+        <v>20</v>
+      </c>
+      <c r="I315" s="11" t="n">
+        <v>180</v>
+      </c>
+      <c r="J315" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="K315" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L315" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M315" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N315" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O315" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P315" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q315" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R315" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S315" s="10"/>
       <c r="T315" s="10"/>
     </row>
@@ -12758,18 +16231,42 @@
       <c r="F316" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="G316" s="11"/>
-      <c r="H316" s="11"/>
-      <c r="I316" s="11"/>
-      <c r="J316" s="11"/>
-      <c r="K316" s="11"/>
-      <c r="L316" s="11"/>
-      <c r="M316" s="11"/>
-      <c r="N316" s="11"/>
-      <c r="O316" s="11"/>
-      <c r="P316" s="11"/>
-      <c r="Q316" s="11"/>
-      <c r="R316" s="11"/>
+      <c r="G316" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H316" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="I316" s="11" t="n">
+        <v>40</v>
+      </c>
+      <c r="J316" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K316" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="L316" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M316" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N316" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O316" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P316" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q316" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R316" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S316" s="10"/>
       <c r="T316" s="10"/>
     </row>
@@ -12792,18 +16289,42 @@
       <c r="F317" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="G317" s="11"/>
-      <c r="H317" s="11"/>
-      <c r="I317" s="11"/>
-      <c r="J317" s="11"/>
-      <c r="K317" s="11"/>
-      <c r="L317" s="11"/>
-      <c r="M317" s="11"/>
-      <c r="N317" s="11"/>
-      <c r="O317" s="11"/>
-      <c r="P317" s="11"/>
-      <c r="Q317" s="11"/>
-      <c r="R317" s="11"/>
+      <c r="G317" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H317" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I317" s="11" t="n">
+        <v>42</v>
+      </c>
+      <c r="J317" s="11" t="n">
+        <v>31</v>
+      </c>
+      <c r="K317" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="L317" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M317" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N317" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O317" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P317" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q317" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R317" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S317" s="10"/>
       <c r="T317" s="10"/>
     </row>
@@ -12826,18 +16347,42 @@
       <c r="F318" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="G318" s="11"/>
-      <c r="H318" s="11"/>
-      <c r="I318" s="11"/>
-      <c r="J318" s="11"/>
-      <c r="K318" s="11"/>
-      <c r="L318" s="11"/>
-      <c r="M318" s="11"/>
-      <c r="N318" s="11"/>
-      <c r="O318" s="11"/>
-      <c r="P318" s="11"/>
-      <c r="Q318" s="11"/>
-      <c r="R318" s="11"/>
+      <c r="G318" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H318" s="11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I318" s="11" t="n">
+        <v>70</v>
+      </c>
+      <c r="J318" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="K318" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L318" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M318" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N318" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O318" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P318" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q318" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R318" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S318" s="10"/>
       <c r="T318" s="10"/>
     </row>
@@ -12860,18 +16405,42 @@
       <c r="F319" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="G319" s="11"/>
-      <c r="H319" s="11"/>
-      <c r="I319" s="11"/>
-      <c r="J319" s="11"/>
-      <c r="K319" s="11"/>
-      <c r="L319" s="11"/>
-      <c r="M319" s="11"/>
-      <c r="N319" s="11"/>
-      <c r="O319" s="11"/>
-      <c r="P319" s="11"/>
-      <c r="Q319" s="11"/>
-      <c r="R319" s="11"/>
+      <c r="G319" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H319" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="I319" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="J319" s="11" t="n">
+        <v>43</v>
+      </c>
+      <c r="K319" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L319" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M319" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N319" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O319" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P319" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q319" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R319" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S319" s="10"/>
       <c r="T319" s="10"/>
     </row>
@@ -12894,18 +16463,42 @@
       <c r="F320" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="G320" s="11"/>
-      <c r="H320" s="11"/>
-      <c r="I320" s="11"/>
-      <c r="J320" s="11"/>
-      <c r="K320" s="11"/>
-      <c r="L320" s="11"/>
-      <c r="M320" s="11"/>
-      <c r="N320" s="11"/>
-      <c r="O320" s="11"/>
-      <c r="P320" s="11"/>
-      <c r="Q320" s="11"/>
-      <c r="R320" s="11"/>
+      <c r="G320" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H320" s="11" t="n">
+        <v>15</v>
+      </c>
+      <c r="I320" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="J320" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="K320" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L320" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M320" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N320" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O320" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P320" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q320" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R320" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S320" s="10"/>
       <c r="T320" s="10"/>
     </row>
@@ -12928,18 +16521,42 @@
       <c r="F321" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="G321" s="11"/>
-      <c r="H321" s="11"/>
-      <c r="I321" s="11"/>
-      <c r="J321" s="11"/>
-      <c r="K321" s="11"/>
-      <c r="L321" s="11"/>
-      <c r="M321" s="11"/>
-      <c r="N321" s="11"/>
-      <c r="O321" s="11"/>
-      <c r="P321" s="11"/>
-      <c r="Q321" s="11"/>
-      <c r="R321" s="11"/>
+      <c r="G321" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="H321" s="11" t="n">
+        <v>30</v>
+      </c>
+      <c r="I321" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="J321" s="11" t="n">
+        <v>43</v>
+      </c>
+      <c r="K321" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="L321" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="M321" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="N321" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="O321" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="P321" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q321" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="R321" s="11" t="s">
+        <v>497</v>
+      </c>
       <c r="S321" s="10"/>
       <c r="T321" s="10"/>
     </row>
@@ -12962,18 +16579,42 @@
       <c r="F322" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="G322" s="11"/>
-      <c r="H322" s="11"/>
-      <c r="I322" s="11"/>
-      <c r="J322" s="11"/>
-      <c r="K322" s="11"/>
-      <c r="L322" s="11"/>
-      <c r="M322" s="11"/>
-      <c r="N322" s="11"/>
-      <c r="O322" s="11"/>
-      <c r="P322" s="11"/>
-      <c r="Q322" s="11"/>
-      <c r="R322" s="11"/>
+      <c r="G322" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H322" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I322" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J322" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K322" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L322" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M322" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N322" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O322" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P322" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q322" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R322" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="S322" s="10"/>
       <c r="T322" s="10"/>
     </row>
@@ -12984,20 +16625,20 @@
       <c r="D323" s="12"/>
       <c r="E323" s="12"/>
       <c r="F323" s="12"/>
-      <c r="G323" s="12"/>
-      <c r="H323" s="12"/>
-      <c r="I323" s="12"/>
-      <c r="J323" s="12"/>
-      <c r="K323" s="12"/>
-      <c r="L323" s="12"/>
-      <c r="M323" s="12"/>
-      <c r="N323" s="12"/>
-      <c r="O323" s="12"/>
-      <c r="P323" s="12"/>
-      <c r="Q323" s="12"/>
-      <c r="R323" s="12"/>
-      <c r="S323" s="12"/>
-      <c r="T323" s="12"/>
+      <c r="G323" s="13"/>
+      <c r="H323" s="13"/>
+      <c r="I323" s="13"/>
+      <c r="J323" s="13"/>
+      <c r="K323" s="13"/>
+      <c r="L323" s="13"/>
+      <c r="M323" s="13"/>
+      <c r="N323" s="13"/>
+      <c r="O323" s="13"/>
+      <c r="P323" s="13"/>
+      <c r="Q323" s="13"/>
+      <c r="R323" s="13"/>
+      <c r="S323" s="13"/>
+      <c r="T323" s="13"/>
     </row>
     <row r="1047787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1047788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
